--- a/marka24merge.xlsx
+++ b/marka24merge.xlsx
@@ -11,6 +11,7 @@
     <sheet name="DistanserMerge" sheetId="6" r:id="rId2"/>
     <sheet name="Ruteanalyse" sheetId="3" r:id="rId3"/>
     <sheet name="Lars vs Kris" sheetId="7" r:id="rId4"/>
+    <sheet name="TilProgrammet" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -1819,11 +1820,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133574520"/>
-        <c:axId val="-2133571464"/>
+        <c:axId val="-2133552248"/>
+        <c:axId val="-2133549192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133574520"/>
+        <c:axId val="-2133552248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1833,12 +1834,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133571464"/>
+        <c:crossAx val="-2133549192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133571464"/>
+        <c:axId val="-2133549192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,7 +1850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133574520"/>
+        <c:crossAx val="-2133552248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2617,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2894,27 +2895,27 @@
       </c>
       <c r="AE2" s="65">
         <f>AC2/AC$66*AA$66</f>
-        <v>1.8459339273750253</v>
+        <v>1.8536951074865262</v>
       </c>
       <c r="AF2" s="47">
         <f>IF(AE2&gt;AA2,AE2/AA2,AA2/AE2)-1</f>
-        <v>0.12090090109926677</v>
+        <v>0.12561369913150533</v>
       </c>
       <c r="AG2" s="75">
         <f>AVERAGE(AE2,AA2)</f>
-        <v>1.7463822743384001</v>
+        <v>1.7502628643941507</v>
       </c>
       <c r="AH2" s="65">
-        <f>AD2/AD$66*AB$66</f>
-        <v>0.82146807029636904</v>
+        <f>AD2/AC$66*AA$66</f>
+        <v>0.81768859647248415</v>
       </c>
       <c r="AI2" s="47">
         <f>IF(AH2&gt;AB2,AH2/AB2,AB2/AH2)-1</f>
-        <v>9.1741302833860283E-2</v>
+        <v>9.678748752362476E-2</v>
       </c>
       <c r="AJ2" s="76">
         <f>AVERAGE(AB2,AH2)</f>
-        <v>0.85914934579907198</v>
+        <v>0.8572596088871296</v>
       </c>
       <c r="AL2" s="25" t="s">
         <v>47</v>
@@ -3041,27 +3042,27 @@
       </c>
       <c r="AE3" s="65">
         <f t="shared" ref="AE3:AE64" si="10">AC3/AC$66*AA$66</f>
-        <v>1.2123406511417165</v>
+        <v>1.2174379051714885</v>
       </c>
       <c r="AF3" s="47">
         <f t="shared" ref="AF3:AF64" si="11">IF(AE3&gt;AA3,AE3/AA3,AA3/AE3)-1</f>
-        <v>2.324474110070307E-2</v>
+        <v>2.7546946405051065E-2</v>
       </c>
       <c r="AG3" s="75">
         <f t="shared" ref="AG3:AG64" si="12">AVERAGE(AE3,AA3)</f>
-        <v>1.198570463311905</v>
+        <v>1.2011190903267912</v>
       </c>
       <c r="AH3" s="65">
-        <f t="shared" ref="AH3:AH64" si="13">AD3/AD$66*AB$66</f>
-        <v>1.2954676579860911</v>
+        <f t="shared" ref="AH3:AH64" si="13">AD3/AC$66*AA$66</f>
+        <v>1.2895073702036559</v>
       </c>
       <c r="AI3" s="47">
         <f t="shared" ref="AI3:AI64" si="14">IF(AH3&gt;AB3,AH3/AB3,AB3/AH3)-1</f>
-        <v>5.138900406678526E-2</v>
+        <v>4.6551692230480723E-2</v>
       </c>
       <c r="AJ3" s="76">
         <f t="shared" ref="AJ3:AJ64" si="15">AVERAGE(AB3,AH3)</f>
-        <v>1.2638082091583347</v>
+        <v>1.2608280652671171</v>
       </c>
       <c r="AL3" s="25" t="s">
         <v>48</v>
@@ -3189,27 +3190,27 @@
       </c>
       <c r="AE4" s="65">
         <f t="shared" si="10"/>
-        <v>2.617037310634962</v>
+        <v>2.6280405744165862</v>
       </c>
       <c r="AF4" s="47">
         <f t="shared" si="11"/>
-        <v>9.322104195322356E-2</v>
+        <v>9.7817460753731655E-2</v>
       </c>
       <c r="AG4" s="75">
         <f t="shared" si="12"/>
-        <v>2.5054574308276854</v>
+        <v>2.5109590627184972</v>
       </c>
       <c r="AH4" s="65">
         <f t="shared" si="13"/>
-        <v>0.74649087542074244</v>
+        <v>0.74305636247320472</v>
       </c>
       <c r="AI4" s="47">
         <f t="shared" si="14"/>
-        <v>0.12396633350943165</v>
+        <v>0.12916146690710018</v>
       </c>
       <c r="AJ4" s="76">
         <f t="shared" si="15"/>
-        <v>0.79276074383282014</v>
+        <v>0.79104348735905128</v>
       </c>
       <c r="AL4" s="25" t="s">
         <v>51</v>
@@ -3392,27 +3393,27 @@
       </c>
       <c r="AE6" s="65">
         <f t="shared" si="10"/>
-        <v>2.716653522167229</v>
+        <v>2.7280756196612965</v>
       </c>
       <c r="AF6" s="47">
         <f t="shared" si="11"/>
-        <v>0.26483868440984337</v>
+        <v>0.27015666502449021</v>
       </c>
       <c r="AG6" s="75">
         <f t="shared" si="12"/>
-        <v>2.4322398045618754</v>
+        <v>2.4379508533089091</v>
       </c>
       <c r="AH6" s="65">
         <f t="shared" si="13"/>
-        <v>0.64777190698425247</v>
+        <v>0.6447915879008681</v>
       </c>
       <c r="AI6" s="47">
         <f t="shared" si="14"/>
-        <v>0.10076320163449726</v>
+        <v>0.10585108683287392</v>
       </c>
       <c r="AJ6" s="76">
         <f t="shared" si="15"/>
-        <v>0.68040769262256107</v>
+        <v>0.67891753308086877</v>
       </c>
       <c r="AL6" s="78" t="s">
         <v>88</v>
@@ -3598,27 +3599,27 @@
       </c>
       <c r="AE8" s="65">
         <f t="shared" si="10"/>
-        <v>2.4165598685573983</v>
+        <v>2.4267202302648028</v>
       </c>
       <c r="AF8" s="47">
         <f t="shared" si="11"/>
-        <v>2.2851706231994617E-2</v>
+        <v>2.7152259031688608E-2</v>
       </c>
       <c r="AG8" s="75">
         <f t="shared" si="12"/>
-        <v>2.3895654783286666</v>
+        <v>2.3946456591823688</v>
       </c>
       <c r="AH8" s="65">
         <f t="shared" si="13"/>
-        <v>1.6573738057340914</v>
+        <v>1.6497484321600402</v>
       </c>
       <c r="AI8" s="47">
         <f t="shared" si="14"/>
-        <v>5.2413952856585011E-2</v>
+        <v>4.7571925356626465E-2</v>
       </c>
       <c r="AJ8" s="76">
         <f t="shared" si="15"/>
-        <v>1.6161022546093204</v>
+        <v>1.612289567822295</v>
       </c>
       <c r="AL8" s="38" t="s">
         <v>45</v>
@@ -3746,27 +3747,27 @@
       </c>
       <c r="AE9" s="65">
         <f t="shared" si="10"/>
-        <v>1.4834061928215878</v>
+        <v>1.4896431347133143</v>
       </c>
       <c r="AF9" s="47">
         <f t="shared" si="11"/>
-        <v>6.8853168013339738E-2</v>
+        <v>7.3347132735845699E-2</v>
       </c>
       <c r="AG9" s="75">
         <f t="shared" si="12"/>
-        <v>1.4356273122031142</v>
+        <v>1.4387457831489774</v>
       </c>
       <c r="AH9" s="65">
         <f t="shared" si="13"/>
-        <v>1.1369668237887454</v>
+        <v>1.1317357789015288</v>
       </c>
       <c r="AI9" s="47">
         <f t="shared" si="14"/>
-        <v>2.3946200642831705E-2</v>
+        <v>1.9235149778736638E-2</v>
       </c>
       <c r="AJ9" s="76">
         <f t="shared" si="15"/>
-        <v>1.1236721625704138</v>
+        <v>1.1210566401268056</v>
       </c>
       <c r="AL9" s="38" t="s">
         <v>86</v>
@@ -3975,27 +3976,27 @@
       </c>
       <c r="AE11" s="65">
         <f t="shared" si="10"/>
-        <v>1.0902075384749419</v>
+        <v>1.094791287080209</v>
       </c>
       <c r="AF11" s="47">
         <f t="shared" si="11"/>
-        <v>1.5396643047233649E-2</v>
+        <v>1.1145309481386922E-2</v>
       </c>
       <c r="AG11" s="75">
         <f t="shared" si="12"/>
-        <v>1.098600306633593</v>
+        <v>1.1008921809362264</v>
       </c>
       <c r="AH11" s="65">
         <f t="shared" si="13"/>
-        <v>1.8305633533811536</v>
+        <v>1.8221411559431309</v>
       </c>
       <c r="AI11" s="47">
         <f t="shared" si="14"/>
-        <v>8.1140982254995331E-2</v>
+        <v>7.6166785216651434E-2</v>
       </c>
       <c r="AJ11" s="76">
         <f t="shared" si="15"/>
-        <v>1.7618703193498564</v>
+        <v>1.757659220630845</v>
       </c>
       <c r="AT11" s="9"/>
       <c r="AZ11" s="1"/>
@@ -4116,27 +4117,27 @@
       </c>
       <c r="AE12" s="65">
         <f t="shared" si="10"/>
-        <v>1.4625503176997805</v>
+        <v>1.4686995716191462</v>
       </c>
       <c r="AF12" s="47">
         <f t="shared" si="11"/>
-        <v>4.6053015344331927E-2</v>
+        <v>5.0451117431230985E-2</v>
       </c>
       <c r="AG12" s="75">
         <f t="shared" si="12"/>
-        <v>1.4303555573793802</v>
+        <v>1.4334301843390631</v>
       </c>
       <c r="AH12" s="65">
         <f t="shared" si="13"/>
-        <v>1.6999745460818356</v>
+        <v>1.6921531717271765</v>
       </c>
       <c r="AI12" s="47">
         <f t="shared" si="14"/>
-        <v>7.4007975426632511E-2</v>
+        <v>6.9066596477716846E-2</v>
       </c>
       <c r="AJ12" s="76">
         <f t="shared" si="15"/>
-        <v>1.6414034379937656</v>
+        <v>1.6374927508164361</v>
       </c>
       <c r="AT12" s="9"/>
       <c r="AZ12" s="1"/>
@@ -4257,27 +4258,27 @@
       </c>
       <c r="AE13" s="65">
         <f t="shared" si="10"/>
-        <v>1.1653193549433298</v>
+        <v>1.1702189091836024</v>
       </c>
       <c r="AF13" s="47">
         <f t="shared" si="11"/>
-        <v>1.3855052900200837E-2</v>
+        <v>9.6101737716243196E-3</v>
       </c>
       <c r="AG13" s="75">
         <f t="shared" si="12"/>
-        <v>1.1733921355975137</v>
+        <v>1.17584191271765</v>
       </c>
       <c r="AH13" s="65">
         <f t="shared" si="13"/>
-        <v>1.9159827254500581</v>
+        <v>1.9071675239593393</v>
       </c>
       <c r="AI13" s="47">
         <f t="shared" si="14"/>
-        <v>7.214834569952E-2</v>
+        <v>6.721552267886266E-2</v>
       </c>
       <c r="AJ13" s="76">
         <f t="shared" si="15"/>
-        <v>1.8515163740423672</v>
+        <v>1.8471087732970077</v>
       </c>
       <c r="AT13" s="9"/>
       <c r="AZ13" s="1"/>
@@ -4398,27 +4399,27 @@
       </c>
       <c r="AE14" s="65">
         <f t="shared" si="10"/>
-        <v>1.1717284585229704</v>
+        <v>1.1766549596688158</v>
       </c>
       <c r="AF14" s="47">
         <f t="shared" si="11"/>
-        <v>9.6332202765326613E-2</v>
+        <v>9.1742002546673751E-2</v>
       </c>
       <c r="AG14" s="75">
         <f t="shared" si="12"/>
-        <v>1.2281660502491394</v>
+        <v>1.2306293008220623</v>
       </c>
       <c r="AH14" s="65">
         <f t="shared" si="13"/>
-        <v>1.5661198393657074</v>
+        <v>1.5589143140970085</v>
       </c>
       <c r="AI14" s="47">
         <f t="shared" si="14"/>
-        <v>1.6812905481414342E-2</v>
+        <v>2.1512760385389296E-2</v>
       </c>
       <c r="AJ14" s="76">
         <f t="shared" si="15"/>
-        <v>1.5792853517816192</v>
+        <v>1.5756825891472697</v>
       </c>
       <c r="AT14" s="9"/>
       <c r="AZ14" s="1"/>
@@ -4539,27 +4540,27 @@
       </c>
       <c r="AE15" s="65">
         <f t="shared" si="10"/>
-        <v>1.6165026957451862</v>
+        <v>1.6232992383442197</v>
       </c>
       <c r="AF15" s="47">
         <f t="shared" si="11"/>
-        <v>5.7583538063926021E-2</v>
+        <v>6.2030119926985927E-2</v>
       </c>
       <c r="AG15" s="75">
         <f t="shared" si="12"/>
-        <v>1.5724948508985812</v>
+        <v>1.5758931221980979</v>
       </c>
       <c r="AH15" s="65">
         <f t="shared" si="13"/>
-        <v>2.4995588112296989</v>
+        <v>2.4880586477542086</v>
       </c>
       <c r="AI15" s="47">
         <f t="shared" si="14"/>
-        <v>4.4275689959980102E-2</v>
+        <v>3.9471105609307333E-2</v>
       </c>
       <c r="AJ15" s="76">
         <f t="shared" si="15"/>
-        <v>2.446570078452158</v>
+        <v>2.4408199967144131</v>
       </c>
       <c r="AK15"/>
       <c r="AL15"/>
@@ -4694,27 +4695,27 @@
       </c>
       <c r="AE16" s="65">
         <f t="shared" si="10"/>
-        <v>1.2167594074289012</v>
+        <v>1.2218752400019814</v>
       </c>
       <c r="AF16" s="47">
         <f t="shared" si="11"/>
-        <v>0.14660209764633447</v>
+        <v>0.14180142392166539</v>
       </c>
       <c r="AG16" s="75">
         <f t="shared" si="12"/>
-        <v>1.305949148158895</v>
+        <v>1.3085070644454353</v>
       </c>
       <c r="AH16" s="65">
         <f t="shared" si="13"/>
-        <v>2.5748691235394214</v>
+        <v>2.563022466555132</v>
       </c>
       <c r="AI16" s="47">
         <f t="shared" si="14"/>
-        <v>1.1108564090233752E-2</v>
+        <v>1.5782052711171835E-2</v>
       </c>
       <c r="AJ16" s="76">
         <f t="shared" si="15"/>
-        <v>2.5891706728808224</v>
+        <v>2.5832473443886776</v>
       </c>
       <c r="AK16"/>
       <c r="AL16"/>
@@ -4832,27 +4833,27 @@
       </c>
       <c r="AE17" s="65">
         <f t="shared" si="10"/>
-        <v>1.2218086778171753</v>
+        <v>1.2269457399133354</v>
       </c>
       <c r="AF17" s="47">
         <f t="shared" si="11"/>
-        <v>8.0909767474287131E-2</v>
+        <v>7.6384138984592509E-2</v>
       </c>
       <c r="AG17" s="75">
         <f t="shared" si="12"/>
-        <v>1.2712368058273023</v>
+        <v>1.2738053368753823</v>
       </c>
       <c r="AH17" s="65">
         <f t="shared" si="13"/>
-        <v>2.3405480450787506</v>
+        <v>2.3297794706328454</v>
       </c>
       <c r="AI17" s="47">
         <f t="shared" si="14"/>
-        <v>5.2457770518788305E-2</v>
+        <v>5.7322381094966346E-2</v>
       </c>
       <c r="AJ17" s="76">
         <f t="shared" si="15"/>
-        <v>2.4019380111972204</v>
+        <v>2.396553723974268</v>
       </c>
       <c r="AK17"/>
       <c r="AL17"/>
@@ -4987,27 +4988,27 @@
       </c>
       <c r="AE18" s="65">
         <f t="shared" si="10"/>
-        <v>2.1056091697800632</v>
+        <v>2.1144621475431027</v>
       </c>
       <c r="AF18" s="47">
         <f t="shared" si="11"/>
-        <v>0.1009543315454029</v>
+        <v>9.6344779075230313E-2</v>
       </c>
       <c r="AG18" s="75">
         <f t="shared" si="12"/>
-        <v>2.2118943528955715</v>
+        <v>2.2163208417770912</v>
       </c>
       <c r="AH18" s="65">
         <f t="shared" si="13"/>
-        <v>1.4582703241163368</v>
+        <v>1.451561001237655</v>
       </c>
       <c r="AI18" s="47">
         <f t="shared" si="14"/>
-        <v>9.4317760272230045E-2</v>
+        <v>9.9375853717343254E-2</v>
       </c>
       <c r="AJ18" s="76">
         <f t="shared" si="15"/>
-        <v>1.5270407195373927</v>
+        <v>1.5236860580980518</v>
       </c>
       <c r="AT18" s="9"/>
       <c r="AW18" s="9"/>
@@ -5129,27 +5130,27 @@
       </c>
       <c r="AE19" s="65">
         <f t="shared" si="10"/>
-        <v>1.1412434885537643</v>
+        <v>1.1460418164540154</v>
       </c>
       <c r="AF19" s="47">
         <f t="shared" si="11"/>
-        <v>0.11803209200350362</v>
+        <v>0.11335103717337947</v>
       </c>
       <c r="AG19" s="75">
         <f t="shared" si="12"/>
-        <v>1.2085951667734531</v>
+        <v>1.2109943307235786</v>
       </c>
       <c r="AH19" s="65">
         <f t="shared" si="13"/>
-        <v>0.94956250166606637</v>
+        <v>0.94519368107649071</v>
       </c>
       <c r="AI19" s="47">
         <f t="shared" si="14"/>
-        <v>0.18124339958423397</v>
+        <v>0.18670327578603674</v>
       </c>
       <c r="AJ19" s="76">
         <f t="shared" si="15"/>
-        <v>1.0356134696259003</v>
+        <v>1.0334290593311124</v>
       </c>
       <c r="AT19" s="9"/>
       <c r="AZ19" s="1"/>
@@ -5270,27 +5271,27 @@
       </c>
       <c r="AE20" s="65">
         <f t="shared" si="10"/>
-        <v>1.4668417368299607</v>
+        <v>1.4730090339069439</v>
       </c>
       <c r="AF20" s="47">
         <f t="shared" si="11"/>
-        <v>0.27509825442817148</v>
+        <v>0.26975958402195999</v>
       </c>
       <c r="AG20" s="75">
         <f t="shared" si="12"/>
-        <v>1.6686045374921155</v>
+        <v>1.671688186030607</v>
       </c>
       <c r="AH20" s="65">
         <f t="shared" si="13"/>
-        <v>1.3839588696583398</v>
+        <v>1.3775914446660085</v>
       </c>
       <c r="AI20" s="47">
         <f t="shared" si="14"/>
-        <v>0.27571550817517143</v>
+        <v>0.28161204799567585</v>
       </c>
       <c r="AJ20" s="76">
         <f t="shared" si="15"/>
-        <v>1.5747483311790322</v>
+        <v>1.5715646186828667</v>
       </c>
       <c r="AT20" s="9"/>
       <c r="AZ20" s="1"/>
@@ -5411,27 +5412,27 @@
       </c>
       <c r="AE21" s="65">
         <f t="shared" si="10"/>
-        <v>2.4773986958740832</v>
+        <v>2.4878148528131452</v>
       </c>
       <c r="AF21" s="47">
         <f t="shared" si="11"/>
-        <v>8.9148794902589534E-2</v>
+        <v>9.3728092048660283E-2</v>
       </c>
       <c r="AG21" s="75">
         <f t="shared" si="12"/>
-        <v>2.3760089182495419</v>
+        <v>2.3812169967190728</v>
       </c>
       <c r="AH21" s="65">
         <f t="shared" si="13"/>
-        <v>2.0929132689782683</v>
+        <v>2.0832840317604284</v>
       </c>
       <c r="AI21" s="47">
         <f t="shared" si="14"/>
-        <v>0.12577188092395697</v>
+        <v>0.12059234259560436</v>
       </c>
       <c r="AJ21" s="76">
         <f t="shared" si="15"/>
-        <v>1.9760025329266344</v>
+        <v>1.9711879143177145</v>
       </c>
       <c r="AT21" s="9"/>
       <c r="AZ21" s="1"/>
@@ -5552,27 +5553,27 @@
       </c>
       <c r="AE22" s="65">
         <f t="shared" si="10"/>
-        <v>3.5631783080889736</v>
+        <v>3.578159596535087</v>
       </c>
       <c r="AF22" s="47">
         <f t="shared" si="11"/>
-        <v>5.2431193658457165E-2</v>
+        <v>4.8024801250149629E-2</v>
       </c>
       <c r="AG22" s="75">
         <f t="shared" si="12"/>
-        <v>3.6565891540444868</v>
+        <v>3.6640797982675437</v>
       </c>
       <c r="AH22" s="65">
         <f t="shared" si="13"/>
-        <v>0.95858623006638244</v>
+        <v>0.95417589240935641</v>
       </c>
       <c r="AI22" s="47">
         <f t="shared" si="14"/>
-        <v>2.249197873747466E-2</v>
+        <v>1.7787618569980124E-2</v>
       </c>
       <c r="AJ22" s="76">
         <f t="shared" si="15"/>
-        <v>0.94804311503319116</v>
+        <v>0.9458379462046782</v>
       </c>
       <c r="AT22" s="9"/>
       <c r="AW22" s="9"/>
@@ -5694,27 +5695,27 @@
       </c>
       <c r="AE23" s="65">
         <f t="shared" si="10"/>
-        <v>1.4643310962876759</v>
+        <v>1.4704878374432608</v>
       </c>
       <c r="AF23" s="47">
         <f t="shared" si="11"/>
-        <v>9.8070008119635066E-3</v>
+        <v>1.4052707494597083E-2</v>
       </c>
       <c r="AG23" s="75">
         <f t="shared" si="12"/>
-        <v>1.4572204819629933</v>
+        <v>1.4602988525407858</v>
       </c>
       <c r="AH23" s="65">
         <f t="shared" si="13"/>
-        <v>1.6530254517155905</v>
+        <v>1.6454200843849762</v>
       </c>
       <c r="AI23" s="47">
         <f t="shared" si="14"/>
-        <v>3.4079743384624051E-2</v>
+        <v>2.9322069333431955E-2</v>
       </c>
       <c r="AJ23" s="76">
         <f t="shared" si="15"/>
-        <v>1.6257864096769505</v>
+        <v>1.6219837260116434</v>
       </c>
       <c r="AT23" s="9"/>
       <c r="AZ23" s="1"/>
@@ -5835,27 +5836,27 @@
       </c>
       <c r="AE24" s="65">
         <f t="shared" si="10"/>
-        <v>1.482138209364686</v>
+        <v>1.4883698200536857</v>
       </c>
       <c r="AF24" s="47">
         <f t="shared" si="11"/>
-        <v>1.5781737564930065E-2</v>
+        <v>1.1528791658466986E-2</v>
       </c>
       <c r="AG24" s="75">
         <f t="shared" si="12"/>
-        <v>1.4938335674922603</v>
+        <v>1.4969493728367602</v>
       </c>
       <c r="AH24" s="65">
         <f t="shared" si="13"/>
-        <v>1.8435356088231203</v>
+        <v>1.835053727629085</v>
       </c>
       <c r="AI24" s="47">
         <f t="shared" si="14"/>
-        <v>3.6164591098764021E-3</v>
+        <v>1.0020602267388767E-3</v>
       </c>
       <c r="AJ24" s="76">
         <f t="shared" si="15"/>
-        <v>1.8402140854032956</v>
+        <v>1.8359731448062782</v>
       </c>
       <c r="AT24" s="9"/>
       <c r="AZ24" s="1"/>
@@ -5976,27 +5977,27 @@
       </c>
       <c r="AE25" s="65">
         <f t="shared" si="10"/>
-        <v>1.5844457009342896</v>
+        <v>1.591107460751084</v>
       </c>
       <c r="AF25" s="47">
         <f t="shared" si="11"/>
-        <v>4.346928261741656E-3</v>
+        <v>8.5696782145292527E-3</v>
       </c>
       <c r="AG25" s="75">
         <f t="shared" si="12"/>
-        <v>1.5810168699184439</v>
+        <v>1.5843477498268412</v>
       </c>
       <c r="AH25" s="65">
         <f t="shared" si="13"/>
-        <v>1.619635378782341</v>
+        <v>1.6121836350814112</v>
       </c>
       <c r="AI25" s="47">
         <f t="shared" si="14"/>
-        <v>1.4785714336332134E-2</v>
+        <v>1.0116809746038236E-2</v>
       </c>
       <c r="AJ25" s="76">
         <f t="shared" si="15"/>
-        <v>1.607836106432831</v>
+        <v>1.6041102345823661</v>
       </c>
       <c r="AT25" s="9"/>
       <c r="AZ25" s="1"/>
@@ -6117,27 +6118,27 @@
       </c>
       <c r="AE26" s="65">
         <f t="shared" si="10"/>
-        <v>2.3059042436014305</v>
+        <v>2.3155993566762061</v>
       </c>
       <c r="AF26" s="47">
         <f t="shared" si="11"/>
-        <v>3.9588423793646355E-2</v>
+        <v>3.5235802390963578E-2</v>
       </c>
       <c r="AG26" s="75">
         <f t="shared" si="12"/>
-        <v>2.3515478008130613</v>
+        <v>2.3563953573504488</v>
       </c>
       <c r="AH26" s="65">
         <f t="shared" si="13"/>
-        <v>1.9513886630670789</v>
+        <v>1.9424105632005468</v>
       </c>
       <c r="AI26" s="47">
         <f t="shared" si="14"/>
-        <v>1.4930920140302284E-2</v>
+        <v>1.962207623844292E-2</v>
       </c>
       <c r="AJ26" s="76">
         <f t="shared" si="15"/>
-        <v>1.9659566772125519</v>
+        <v>1.9614676272792857</v>
       </c>
       <c r="AT26" s="9"/>
       <c r="AZ26" s="1"/>
@@ -6258,27 +6259,27 @@
       </c>
       <c r="AE27" s="65">
         <f t="shared" si="10"/>
-        <v>1.726161935918658</v>
+        <v>1.7334195378769972</v>
       </c>
       <c r="AF27" s="47">
         <f t="shared" si="11"/>
-        <v>4.4319059708145314E-2</v>
+        <v>4.8709871424680529E-2</v>
       </c>
       <c r="AG27" s="75">
         <f t="shared" si="12"/>
-        <v>1.6895343012926622</v>
+        <v>1.6931631022718319</v>
       </c>
       <c r="AH27" s="65">
         <f t="shared" si="13"/>
-        <v>1.0133625860701758</v>
+        <v>1.0087002291184624</v>
       </c>
       <c r="AI27" s="47">
         <f t="shared" si="14"/>
-        <v>9.8231454333165269E-2</v>
+        <v>0.10330763743285121</v>
       </c>
       <c r="AJ27" s="76">
         <f t="shared" si="15"/>
-        <v>1.0631346263684212</v>
+        <v>1.0608034478925643</v>
       </c>
       <c r="AT27" s="9"/>
       <c r="AW27" s="9"/>
@@ -6400,27 +6401,27 @@
       </c>
       <c r="AE28" s="65">
         <f t="shared" si="10"/>
-        <v>1.4759989057032668</v>
+        <v>1.4822047038532751</v>
       </c>
       <c r="AF28" s="47">
         <f t="shared" si="11"/>
-        <v>0.18683103466105511</v>
+        <v>0.19182103418667329</v>
       </c>
       <c r="AG28" s="75">
         <f t="shared" si="12"/>
-        <v>1.3598229738909171</v>
+        <v>1.362925872965921</v>
       </c>
       <c r="AH28" s="65">
         <f t="shared" si="13"/>
-        <v>1.5193994030941278</v>
+        <v>1.512408832821629</v>
       </c>
       <c r="AI28" s="47">
         <f t="shared" si="14"/>
-        <v>0.20140046473684037</v>
+        <v>0.19587296857154435</v>
       </c>
       <c r="AJ28" s="76">
         <f t="shared" si="15"/>
-        <v>1.3920448053201606</v>
+        <v>1.3885495201839113</v>
       </c>
       <c r="AT28" s="9"/>
       <c r="AZ28" s="1"/>
@@ -6541,27 +6542,27 @@
       </c>
       <c r="AE29" s="65">
         <f t="shared" si="10"/>
-        <v>1.2903578197754684</v>
+        <v>1.2957830949161677</v>
       </c>
       <c r="AF29" s="47">
         <f t="shared" si="11"/>
-        <v>6.7532429381873316E-2</v>
+        <v>7.2020841093923593E-2</v>
       </c>
       <c r="AG29" s="75">
         <f t="shared" si="12"/>
-        <v>1.2495436037652852</v>
+        <v>1.2522562413356348</v>
       </c>
       <c r="AH29" s="65">
         <f t="shared" si="13"/>
-        <v>1.5129993237057375</v>
+        <v>1.506038199413422</v>
       </c>
       <c r="AI29" s="47">
         <f t="shared" si="14"/>
-        <v>0.12194461297881731</v>
+        <v>0.11678268344079834</v>
       </c>
       <c r="AJ29" s="76">
         <f t="shared" si="15"/>
-        <v>1.4307750700161339</v>
+        <v>1.4272945078699761</v>
       </c>
       <c r="AT29" s="9"/>
       <c r="AW29" s="9"/>
@@ -6683,27 +6684,27 @@
       </c>
       <c r="AE30" s="65">
         <f t="shared" si="10"/>
-        <v>1.2822366156544678</v>
+        <v>1.2876277454083953</v>
       </c>
       <c r="AF30" s="47">
         <f t="shared" si="11"/>
-        <v>0.15192347769960102</v>
+        <v>0.14710052404935614</v>
       </c>
       <c r="AG30" s="75">
         <f t="shared" si="12"/>
-        <v>1.3796375385964645</v>
+        <v>1.3823331034734283</v>
       </c>
       <c r="AH30" s="65">
         <f t="shared" si="13"/>
-        <v>1.4918510270701912</v>
+        <v>1.4849872034964844</v>
       </c>
       <c r="AI30" s="47">
         <f t="shared" si="14"/>
-        <v>0.11059758902334393</v>
+        <v>0.1157309301689724</v>
       </c>
       <c r="AJ30" s="76">
         <f t="shared" si="15"/>
-        <v>1.5743485904581724</v>
+        <v>1.5709166786713191</v>
       </c>
       <c r="AT30" s="9"/>
       <c r="AZ30" s="1"/>
@@ -6824,27 +6825,27 @@
       </c>
       <c r="AE31" s="65">
         <f t="shared" si="10"/>
-        <v>1.4144670857905011</v>
+        <v>1.4204141750399095</v>
       </c>
       <c r="AF31" s="47">
         <f t="shared" si="11"/>
-        <v>0.17585982543143674</v>
+        <v>0.17093665340913677</v>
       </c>
       <c r="AG31" s="75">
         <f t="shared" si="12"/>
-        <v>1.5388410531833163</v>
+        <v>1.5418145978080204</v>
       </c>
       <c r="AH31" s="65">
         <f t="shared" si="13"/>
-        <v>1.4532585322797664</v>
+        <v>1.4465722680405397</v>
       </c>
       <c r="AI31" s="47">
         <f t="shared" si="14"/>
-        <v>0.1635870430440225</v>
+        <v>0.16896530903668605</v>
       </c>
       <c r="AJ31" s="76">
         <f t="shared" si="15"/>
-        <v>1.5721256653168378</v>
+        <v>1.5687825331972247</v>
       </c>
       <c r="AT31" s="9"/>
       <c r="AW31" s="9"/>
@@ -6966,27 +6967,27 @@
       </c>
       <c r="AE32" s="65">
         <f t="shared" si="10"/>
-        <v>1.1470354862150614</v>
+        <v>1.1518581664154615</v>
       </c>
       <c r="AF32" s="47">
         <f t="shared" si="11"/>
-        <v>6.2218274012235897E-2</v>
+        <v>5.7770904372513865E-2</v>
       </c>
       <c r="AG32" s="75">
         <f t="shared" si="12"/>
-        <v>1.1827187703066047</v>
+        <v>1.1851301104068048</v>
       </c>
       <c r="AH32" s="65">
         <f t="shared" si="13"/>
-        <v>1.1034836393796572</v>
+        <v>1.098406646516604</v>
       </c>
       <c r="AI32" s="47">
         <f t="shared" si="14"/>
-        <v>6.8230897333200424E-2</v>
+        <v>7.3168413560959156E-2</v>
       </c>
       <c r="AJ32" s="76">
         <f t="shared" si="15"/>
-        <v>1.141129478833347</v>
+        <v>1.1385909824018206</v>
       </c>
       <c r="AT32" s="9"/>
       <c r="AZ32" s="1"/>
@@ -7107,27 +7108,27 @@
       </c>
       <c r="AE33" s="65">
         <f t="shared" si="10"/>
-        <v>2.7473333437541183</v>
+        <v>2.7588844337422254</v>
       </c>
       <c r="AF33" s="47">
         <f t="shared" si="11"/>
-        <v>2.7851480091291236E-2</v>
+        <v>3.2173054307225391E-2</v>
       </c>
       <c r="AG33" s="75">
         <f t="shared" si="12"/>
-        <v>2.7101113805572017</v>
+        <v>2.7158869255512554</v>
       </c>
       <c r="AH33" s="65">
         <f t="shared" si="13"/>
-        <v>1.8262720417644012</v>
+        <v>1.8178695881247224</v>
       </c>
       <c r="AI33" s="47">
         <f t="shared" si="14"/>
-        <v>9.7342040598621837E-2</v>
+        <v>9.2293304478184623E-2</v>
       </c>
       <c r="AJ33" s="76">
         <f t="shared" si="15"/>
-        <v>1.7452703847347573</v>
+        <v>1.741069157914918</v>
       </c>
       <c r="AT33" s="9"/>
       <c r="AW33" s="9"/>
@@ -7249,27 +7250,27 @@
       </c>
       <c r="AE34" s="65">
         <f t="shared" si="10"/>
-        <v>1.0274995225678794</v>
+        <v>1.0318196169877649</v>
       </c>
       <c r="AF34" s="47">
         <f t="shared" si="11"/>
-        <v>9.9614078995184707E-2</v>
+        <v>9.5010137987973753E-2</v>
       </c>
       <c r="AG34" s="75">
         <f t="shared" si="12"/>
-        <v>1.078676231872175</v>
+        <v>1.0808362790821178</v>
       </c>
       <c r="AH34" s="65">
         <f t="shared" si="13"/>
-        <v>0.93321188868227234</v>
+        <v>0.92891829525734404</v>
       </c>
       <c r="AI34" s="47">
         <f t="shared" si="14"/>
-        <v>0.13192249501164244</v>
+        <v>0.13715440292746606</v>
       </c>
       <c r="AJ34" s="76">
         <f t="shared" si="15"/>
-        <v>0.99476770904701861</v>
+        <v>0.99262091233455441</v>
       </c>
       <c r="AT34" s="9"/>
       <c r="AW34" s="9"/>
@@ -7391,27 +7392,27 @@
       </c>
       <c r="AE35" s="65">
         <f t="shared" si="10"/>
-        <v>1.7855482410534744</v>
+        <v>1.7930555311525822</v>
       </c>
       <c r="AF35" s="47">
         <f t="shared" si="11"/>
-        <v>0.15749239275538773</v>
+        <v>0.15264612278273404</v>
       </c>
       <c r="AG35" s="75">
         <f t="shared" si="12"/>
-        <v>1.9261533734853171</v>
+        <v>1.929907018534871</v>
       </c>
       <c r="AH35" s="65">
         <f t="shared" si="13"/>
-        <v>1.3349542210379588</v>
+        <v>1.3288122604226453</v>
       </c>
       <c r="AI35" s="47">
         <f t="shared" si="14"/>
-        <v>0.16923041872299094</v>
+        <v>0.17463476920643606</v>
       </c>
       <c r="AJ35" s="76">
         <f t="shared" si="15"/>
-        <v>1.4479116519390978</v>
+        <v>1.444840671631441</v>
       </c>
       <c r="AT35" s="9"/>
       <c r="AZ35" s="1"/>
@@ -7532,27 +7533,27 @@
       </c>
       <c r="AE36" s="65">
         <f t="shared" si="10"/>
-        <v>1.4215451236977186</v>
+        <v>1.4275219723692922</v>
       </c>
       <c r="AF36" s="47">
         <f t="shared" si="11"/>
-        <v>5.2265426799740666E-2</v>
+        <v>5.6689648805406945E-2</v>
       </c>
       <c r="AG36" s="75">
         <f t="shared" si="12"/>
-        <v>1.3862414537714371</v>
+        <v>1.3892298781072241</v>
       </c>
       <c r="AH36" s="65">
         <f t="shared" si="13"/>
-        <v>1.4547955726889805</v>
+        <v>1.4481022367153764</v>
       </c>
       <c r="AI36" s="47">
         <f t="shared" si="14"/>
-        <v>6.4422303914512202E-2</v>
+        <v>5.9525027464372382E-2</v>
       </c>
       <c r="AJ36" s="76">
         <f t="shared" si="15"/>
-        <v>1.410771090031774</v>
+        <v>1.4074244220449721</v>
       </c>
       <c r="AT36" s="9"/>
       <c r="AZ36" s="1"/>
@@ -7673,27 +7674,27 @@
       </c>
       <c r="AE37" s="65">
         <f t="shared" si="10"/>
-        <v>2.1245658597222565</v>
+        <v>2.1334985403840716</v>
       </c>
       <c r="AF37" s="47">
         <f t="shared" si="11"/>
-        <v>7.3720814456186279E-3</v>
+        <v>1.1607550574524783E-2</v>
       </c>
       <c r="AG37" s="75">
         <f t="shared" si="12"/>
-        <v>2.1167919334625687</v>
+        <v>2.121258273793476</v>
       </c>
       <c r="AH37" s="65">
         <f t="shared" si="13"/>
-        <v>1.2129673588364496</v>
+        <v>1.2073866448102848</v>
       </c>
       <c r="AI37" s="47">
         <f t="shared" si="14"/>
-        <v>4.3117935520211814E-2</v>
+        <v>4.793937604112819E-2</v>
       </c>
       <c r="AJ37" s="76">
         <f t="shared" si="15"/>
-        <v>1.2391176830196655</v>
+        <v>1.236327326006583</v>
       </c>
       <c r="AT37" s="9"/>
       <c r="AZ37" s="1"/>
@@ -7869,27 +7870,27 @@
       </c>
       <c r="AE39" s="65">
         <f t="shared" si="10"/>
-        <v>2.0559538837673372</v>
+        <v>2.0645980872007446</v>
       </c>
       <c r="AF39" s="47">
         <f t="shared" si="11"/>
-        <v>0.12736447704402676</v>
+        <v>0.12264434873257501</v>
       </c>
       <c r="AG39" s="75">
         <f t="shared" si="12"/>
-        <v>2.1868816293836684</v>
+        <v>2.191203731100372</v>
       </c>
       <c r="AH39" s="65">
         <f t="shared" si="13"/>
-        <v>1.3140619570493324</v>
+        <v>1.3080161191778259</v>
       </c>
       <c r="AI39" s="47">
         <f t="shared" si="14"/>
-        <v>0.13281616366290971</v>
+        <v>0.13805220224325443</v>
       </c>
       <c r="AJ39" s="76">
         <f t="shared" si="15"/>
-        <v>1.4013262910246662</v>
+        <v>1.3983033720889129</v>
       </c>
       <c r="AT39" s="9"/>
       <c r="AZ39" s="1"/>
@@ -8010,27 +8011,27 @@
       </c>
       <c r="AE40" s="65">
         <f t="shared" si="10"/>
-        <v>1.3421126623215807</v>
+        <v>1.3477555393215266</v>
       </c>
       <c r="AF40" s="47">
         <f t="shared" si="11"/>
-        <v>0.14249397093556593</v>
+        <v>0.14729755645573928</v>
       </c>
       <c r="AG40" s="75">
         <f t="shared" si="12"/>
-        <v>1.2584172698021343</v>
+        <v>1.2612387083021073</v>
       </c>
       <c r="AH40" s="65">
         <f t="shared" si="13"/>
-        <v>1.6706351645134025</v>
+        <v>1.6629487770543472</v>
       </c>
       <c r="AI40" s="47">
         <f t="shared" si="14"/>
-        <v>0.19096088067846306</v>
+        <v>0.18548141575882049</v>
       </c>
       <c r="AJ40" s="76">
         <f t="shared" si="15"/>
-        <v>1.5366987911683156</v>
+        <v>1.5328555974387879</v>
       </c>
       <c r="AT40" s="9"/>
       <c r="AZ40" s="1"/>
@@ -8151,27 +8152,27 @@
       </c>
       <c r="AE41" s="65">
         <f t="shared" si="10"/>
-        <v>0.96951054225976407</v>
+        <v>0.97358682355395831</v>
       </c>
       <c r="AF41" s="47">
         <f t="shared" si="11"/>
-        <v>4.4834374689099787E-2</v>
+        <v>4.0459789172905936E-2</v>
       </c>
       <c r="AG41" s="75">
         <f t="shared" si="12"/>
-        <v>0.99124424171811731</v>
+        <v>0.99328238236521438</v>
       </c>
       <c r="AH41" s="65">
         <f t="shared" si="13"/>
-        <v>3.1800158392030604</v>
+        <v>3.1653849764119215</v>
       </c>
       <c r="AI41" s="47">
         <f t="shared" si="14"/>
-        <v>4.4991095430176209E-2</v>
+        <v>4.9821193964519894E-2</v>
       </c>
       <c r="AJ41" s="76">
         <f t="shared" si="15"/>
-        <v>3.2515520372485889</v>
+        <v>3.2442366058530192</v>
       </c>
       <c r="AT41" s="9"/>
       <c r="AW41" s="9"/>
@@ -8293,27 +8294,27 @@
       </c>
       <c r="AE42" s="65">
         <f t="shared" si="10"/>
-        <v>1.587295091584541</v>
+        <v>1.593968831588555</v>
       </c>
       <c r="AF42" s="47">
         <f t="shared" si="11"/>
-        <v>4.4475196343974455E-2</v>
+        <v>4.0102114660755861E-2</v>
       </c>
       <c r="AG42" s="75">
         <f t="shared" si="12"/>
-        <v>1.6225927220115657</v>
+        <v>1.6259295920135726</v>
       </c>
       <c r="AH42" s="65">
         <f t="shared" si="13"/>
-        <v>1.9395545442781825</v>
+        <v>1.9306308917405348</v>
       </c>
       <c r="AI42" s="47">
         <f t="shared" si="14"/>
-        <v>3.1523945595841374E-2</v>
+        <v>3.6291797034529338E-2</v>
       </c>
       <c r="AJ42" s="76">
         <f t="shared" si="15"/>
-        <v>1.9701257502451788</v>
+        <v>1.9656639239763547</v>
       </c>
       <c r="AT42" s="9"/>
       <c r="AW42" s="9"/>
@@ -8435,27 +8436,27 @@
       </c>
       <c r="AE43" s="65">
         <f t="shared" si="10"/>
-        <v>1.7392217813768776</v>
+        <v>1.7465342931081651</v>
       </c>
       <c r="AF43" s="47">
         <f t="shared" si="11"/>
-        <v>0.36407701909048562</v>
+        <v>0.36981224464440121</v>
       </c>
       <c r="AG43" s="75">
         <f t="shared" si="12"/>
-        <v>1.507119534641888</v>
+        <v>1.5107757905075316</v>
       </c>
       <c r="AH43" s="65">
         <f t="shared" si="13"/>
-        <v>1.8025363362990687</v>
+        <v>1.7942430877286328</v>
       </c>
       <c r="AI43" s="47">
         <f t="shared" si="14"/>
-        <v>0.37871447289546034</v>
+        <v>0.37237117672931719</v>
       </c>
       <c r="AJ43" s="76">
         <f t="shared" si="15"/>
-        <v>1.5549699939211654</v>
+        <v>1.5508233696359475</v>
       </c>
       <c r="AT43" s="9"/>
       <c r="AZ43" s="1"/>
@@ -8576,27 +8577,27 @@
       </c>
       <c r="AE44" s="65">
         <f t="shared" si="10"/>
-        <v>1.5654398505325171</v>
+        <v>1.5720217007566915</v>
       </c>
       <c r="AF44" s="47">
         <f t="shared" si="11"/>
-        <v>4.9961963476177429E-2</v>
+        <v>4.5565909413212591E-2</v>
       </c>
       <c r="AG44" s="75">
         <f t="shared" si="12"/>
-        <v>1.6045460748507461</v>
+        <v>1.6078369999628332</v>
       </c>
       <c r="AH44" s="65">
         <f t="shared" si="13"/>
-        <v>1.6166794717006083</v>
+        <v>1.6092413277655673</v>
       </c>
       <c r="AI44" s="47">
         <f t="shared" si="14"/>
-        <v>4.6309466793512222E-2</v>
+        <v>5.1145659029149249E-2</v>
       </c>
       <c r="AJ44" s="76">
         <f t="shared" si="15"/>
-        <v>1.6541132538558445</v>
+        <v>1.6503941818883239</v>
       </c>
       <c r="AT44" s="9"/>
       <c r="AZ44" s="1"/>
@@ -8717,27 +8718,27 @@
       </c>
       <c r="AE45" s="65">
         <f t="shared" si="10"/>
-        <v>1.5882489913321929</v>
+        <v>1.5949267419823301</v>
       </c>
       <c r="AF45" s="47">
         <f t="shared" si="11"/>
-        <v>6.7478977247043881E-2</v>
+        <v>7.1967164221014679E-2</v>
       </c>
       <c r="AG45" s="75">
         <f t="shared" si="12"/>
-        <v>1.5380496806979269</v>
+        <v>1.5413885560229956</v>
       </c>
       <c r="AH45" s="65">
         <f t="shared" si="13"/>
-        <v>1.6376997480936273</v>
+        <v>1.6301648924454095</v>
       </c>
       <c r="AI45" s="47">
         <f t="shared" si="14"/>
-        <v>7.9701983964263423E-2</v>
+        <v>7.4734407580536732E-2</v>
       </c>
       <c r="AJ45" s="76">
         <f t="shared" si="15"/>
-        <v>1.5772534763448312</v>
+        <v>1.5734860485207223</v>
       </c>
       <c r="AT45" s="9"/>
       <c r="AZ45" s="1"/>
@@ -8858,27 +8859,27 @@
       </c>
       <c r="AE46" s="65">
         <f t="shared" si="10"/>
-        <v>3.3029693343656046</v>
+        <v>3.3168565811010442</v>
       </c>
       <c r="AF46" s="47">
         <f t="shared" si="11"/>
-        <v>1.1352238821794813E-2</v>
+        <v>7.1178386499624047E-3</v>
       </c>
       <c r="AG46" s="75">
         <f t="shared" si="12"/>
-        <v>3.321717382717996</v>
+        <v>3.3286610060857158</v>
       </c>
       <c r="AH46" s="65">
         <f t="shared" si="13"/>
-        <v>0.93637409165710617</v>
+        <v>0.93206594932419051</v>
       </c>
       <c r="AI46" s="47">
         <f t="shared" si="14"/>
-        <v>3.1324295010735081E-3</v>
+        <v>1.4850618936907978E-3</v>
       </c>
       <c r="AJ46" s="76">
         <f t="shared" si="15"/>
-        <v>0.93491210830252236</v>
+        <v>0.93275803713606453</v>
       </c>
       <c r="AT46" s="9"/>
       <c r="AW46" s="9"/>
@@ -9000,27 +9001,27 @@
       </c>
       <c r="AE47" s="65">
         <f t="shared" si="10"/>
-        <v>1.8753700275698835</v>
+        <v>1.8832549709819042</v>
       </c>
       <c r="AF47" s="47">
         <f t="shared" si="11"/>
-        <v>4.4138162370356948E-2</v>
+        <v>4.8528213508846063E-2</v>
       </c>
       <c r="AG47" s="75">
         <f t="shared" si="12"/>
-        <v>1.8357318887849419</v>
+        <v>1.8396743604909522</v>
       </c>
       <c r="AH47" s="65">
         <f t="shared" si="13"/>
-        <v>1.5542077782274208</v>
+        <v>1.5470570588907948</v>
       </c>
       <c r="AI47" s="47">
         <f t="shared" si="14"/>
-        <v>3.9047310116131939E-2</v>
+        <v>3.4266780899767646E-2</v>
       </c>
       <c r="AJ47" s="76">
         <f t="shared" si="15"/>
-        <v>1.5250042797387104</v>
+        <v>1.5214289200703974</v>
       </c>
       <c r="AT47" s="9"/>
       <c r="AZ47" s="1"/>
@@ -9195,27 +9196,27 @@
       </c>
       <c r="AE49" s="65">
         <f t="shared" si="10"/>
-        <v>1.9029472905240703</v>
+        <v>1.910948181804861</v>
       </c>
       <c r="AF49" s="47">
         <f t="shared" si="11"/>
-        <v>0.23949450575454567</v>
+        <v>0.24470592744397579</v>
       </c>
       <c r="AG49" s="75">
         <f t="shared" si="12"/>
-        <v>1.7191040307495635</v>
+        <v>1.7231044763899588</v>
       </c>
       <c r="AH49" s="65">
         <f t="shared" si="13"/>
-        <v>1.8910884810833399</v>
+        <v>1.882387814957234</v>
       </c>
       <c r="AI49" s="47">
         <f t="shared" si="14"/>
-        <v>0.25004874489657913</v>
+        <v>0.24429742396183762</v>
       </c>
       <c r="AJ49" s="76">
         <f t="shared" si="15"/>
-        <v>1.7019501362332801</v>
+        <v>1.6975998031702271</v>
       </c>
       <c r="AT49" s="9"/>
       <c r="AW49" s="9"/>
@@ -9337,27 +9338,27 @@
       </c>
       <c r="AE50" s="65">
         <f t="shared" si="10"/>
-        <v>1.4973428663379782</v>
+        <v>1.5036384046029074</v>
       </c>
       <c r="AF50" s="47">
         <f t="shared" si="11"/>
-        <v>8.6696760794943151E-2</v>
+        <v>8.2146902917532794E-2</v>
       </c>
       <c r="AG50" s="75">
         <f t="shared" si="12"/>
-        <v>1.5622502544934371</v>
+        <v>1.5653980236259017</v>
       </c>
       <c r="AH50" s="65">
         <f t="shared" si="13"/>
-        <v>1.507001889580551</v>
+        <v>1.5000683587469543</v>
       </c>
       <c r="AI50" s="47">
         <f t="shared" si="14"/>
-        <v>7.7531041829186575E-2</v>
+        <v>8.2511544657018598E-2</v>
       </c>
       <c r="AJ50" s="76">
         <f t="shared" si="15"/>
-        <v>1.5654216028494177</v>
+        <v>1.5619548374326193</v>
       </c>
       <c r="AT50" s="9"/>
       <c r="AZ50" s="1"/>
@@ -9478,27 +9479,27 @@
       </c>
       <c r="AE51" s="65">
         <f t="shared" si="10"/>
-        <v>1.9597480694489353</v>
+        <v>1.9679877780942976</v>
       </c>
       <c r="AF51" s="47">
         <f t="shared" si="11"/>
-        <v>5.6616999542325797E-2</v>
+        <v>5.2193081709667188E-2</v>
       </c>
       <c r="AG51" s="75">
         <f t="shared" si="12"/>
-        <v>2.0152255972244673</v>
+        <v>2.0193454515471485</v>
       </c>
       <c r="AH51" s="65">
         <f t="shared" si="13"/>
-        <v>1.4498616729754037</v>
+        <v>1.4431910372691519</v>
       </c>
       <c r="AI51" s="47">
         <f t="shared" si="14"/>
-        <v>5.9637725195638813E-2</v>
+        <v>6.4535522550836166E-2</v>
       </c>
       <c r="AJ51" s="76">
         <f t="shared" si="15"/>
-        <v>1.4930948989877018</v>
+        <v>1.4897595811345758</v>
       </c>
       <c r="AT51" s="9"/>
       <c r="AZ51" s="1"/>
@@ -9619,27 +9620,27 @@
       </c>
       <c r="AE52" s="65">
         <f t="shared" si="10"/>
-        <v>1.6297829115436129</v>
+        <v>1.6366352904568302</v>
       </c>
       <c r="AF52" s="47">
         <f t="shared" si="11"/>
-        <v>8.606857221210551E-2</v>
+        <v>8.1521344478517443E-2</v>
       </c>
       <c r="AG52" s="75">
         <f t="shared" si="12"/>
-        <v>1.6999194556497363</v>
+        <v>1.7033456451063449</v>
       </c>
       <c r="AH52" s="65">
         <f t="shared" si="13"/>
-        <v>1.8460273883700258</v>
+        <v>1.8375340428039559</v>
       </c>
       <c r="AI52" s="47">
         <f t="shared" si="14"/>
-        <v>7.37332355851541E-2</v>
+        <v>7.86961844085039E-2</v>
       </c>
       <c r="AJ52" s="76">
         <f t="shared" si="15"/>
-        <v>1.9140841745316928</v>
+        <v>1.9098375017486577</v>
       </c>
       <c r="AT52" s="9"/>
       <c r="AZ52" s="1"/>
@@ -9760,27 +9761,27 @@
       </c>
       <c r="AE53" s="65">
         <f t="shared" si="10"/>
-        <v>1.2377457873464626</v>
+        <v>1.2429498565958468</v>
       </c>
       <c r="AF53" s="47">
         <f t="shared" si="11"/>
-        <v>3.9858724352422215E-2</v>
+        <v>3.5504971236486327E-2</v>
       </c>
       <c r="AG53" s="75">
         <f t="shared" si="12"/>
-        <v>1.2624132714245699</v>
+        <v>1.2650153060492619</v>
       </c>
       <c r="AH53" s="65">
         <f t="shared" si="13"/>
-        <v>1.0215178057394398</v>
+        <v>1.0168179276224099</v>
       </c>
       <c r="AI53" s="47">
         <f t="shared" si="14"/>
-        <v>9.3878261424409137E-2</v>
+        <v>9.8934323442891436E-2</v>
       </c>
       <c r="AJ53" s="76">
         <f t="shared" si="15"/>
-        <v>1.0694669635478879</v>
+        <v>1.0671170244893728</v>
       </c>
       <c r="AT53" s="9"/>
       <c r="AW53" s="9"/>
@@ -9902,27 +9903,27 @@
       </c>
       <c r="AE54" s="65">
         <f t="shared" si="10"/>
-        <v>1.9540733780693864</v>
+        <v>1.962289227625742</v>
       </c>
       <c r="AF54" s="47">
         <f t="shared" si="11"/>
-        <v>0.1147278763174211</v>
+        <v>0.11941472003111442</v>
       </c>
       <c r="AG54" s="75">
         <f t="shared" si="12"/>
-        <v>1.8535166890346932</v>
+        <v>1.8576246138128709</v>
       </c>
       <c r="AH54" s="65">
         <f t="shared" si="13"/>
-        <v>0.79975381722343886</v>
+        <v>0.79607424801430615</v>
       </c>
       <c r="AI54" s="47">
         <f t="shared" si="14"/>
-        <v>0.11081266201505113</v>
+        <v>0.11594699725885604</v>
       </c>
       <c r="AJ54" s="76">
         <f t="shared" si="15"/>
-        <v>0.84406524194505284</v>
+        <v>0.84222545734048648</v>
       </c>
       <c r="AT54" s="9"/>
       <c r="AW54" s="9"/>
@@ -10044,27 +10045,27 @@
       </c>
       <c r="AE55" s="65">
         <f t="shared" si="10"/>
-        <v>2.003899406852963</v>
+        <v>2.0123247486223907</v>
       </c>
       <c r="AF55" s="47">
         <f t="shared" si="11"/>
-        <v>8.4838899659995359E-2</v>
+        <v>8.0296820405311164E-2</v>
       </c>
       <c r="AG55" s="75">
         <f t="shared" si="12"/>
-        <v>2.0889037172063243</v>
+        <v>2.0931163880910382</v>
       </c>
       <c r="AH55" s="65">
         <f t="shared" si="13"/>
-        <v>1.4565859329225992</v>
+        <v>1.4498843597211795</v>
       </c>
       <c r="AI55" s="47">
         <f t="shared" si="14"/>
-        <v>9.2386536927564267E-2</v>
+        <v>9.7435703981737731E-2</v>
       </c>
       <c r="AJ55" s="76">
         <f t="shared" si="15"/>
-        <v>1.5238703979626615</v>
+        <v>1.5205196113619515</v>
       </c>
       <c r="AT55" s="9"/>
       <c r="AW55" s="9"/>
@@ -10186,27 +10187,27 @@
       </c>
       <c r="AE56" s="65">
         <f t="shared" si="10"/>
-        <v>1.3515503927234034</v>
+        <v>1.3572329504098604</v>
       </c>
       <c r="AF56" s="47">
         <f t="shared" si="11"/>
-        <v>2.767881837942765E-2</v>
+        <v>3.1999666643785396E-2</v>
       </c>
       <c r="AG56" s="75">
         <f t="shared" si="12"/>
-        <v>1.3333495126518327</v>
+        <v>1.336190791495061</v>
       </c>
       <c r="AH56" s="65">
         <f t="shared" si="13"/>
-        <v>2.1846400547863443</v>
+        <v>2.1745887938789097</v>
       </c>
       <c r="AI56" s="47">
         <f t="shared" si="14"/>
-        <v>5.3135045007334902E-2</v>
+        <v>4.8289699850845524E-2</v>
       </c>
       <c r="AJ56" s="76">
         <f t="shared" si="15"/>
-        <v>2.1295279643729583</v>
+        <v>2.1245023339192413</v>
       </c>
       <c r="AT56" s="9"/>
       <c r="AZ56" s="1"/>
@@ -10327,27 +10328,27 @@
       </c>
       <c r="AE57" s="65">
         <f t="shared" si="10"/>
-        <v>1.741850036203171</v>
+        <v>1.7491735983619865</v>
       </c>
       <c r="AF57" s="47">
         <f t="shared" si="11"/>
-        <v>6.8794288508192025E-2</v>
+        <v>7.3288005673384005E-2</v>
       </c>
       <c r="AG57" s="75">
         <f t="shared" si="12"/>
-        <v>1.6857918521274393</v>
+        <v>1.6894536332068473</v>
       </c>
       <c r="AH57" s="65">
         <f t="shared" si="13"/>
-        <v>1.8625481768867831</v>
+        <v>1.8539788211993138</v>
       </c>
       <c r="AI57" s="47">
         <f t="shared" si="14"/>
-        <v>8.4603965126985869E-2</v>
+        <v>7.9613835329243932E-2</v>
       </c>
       <c r="AJ57" s="76">
         <f t="shared" si="15"/>
-        <v>1.7899046286095963</v>
+        <v>1.7856199507658617</v>
       </c>
       <c r="AT57" s="9"/>
       <c r="AZ57" s="1"/>
@@ -10468,27 +10469,27 @@
       </c>
       <c r="AE58" s="65">
         <f t="shared" si="10"/>
-        <v>1.066534050365644</v>
+        <v>1.0710182644196689</v>
       </c>
       <c r="AF58" s="47">
         <f t="shared" si="11"/>
-        <v>0.10647606669200149</v>
+        <v>0.10184339543555843</v>
       </c>
       <c r="AG58" s="75">
         <f t="shared" si="12"/>
-        <v>1.1233142257036555</v>
+        <v>1.1255563327306679</v>
       </c>
       <c r="AH58" s="65">
         <f t="shared" si="13"/>
-        <v>1.5421699766114254</v>
+        <v>1.5350746417233858</v>
       </c>
       <c r="AI58" s="47">
         <f t="shared" si="14"/>
-        <v>7.1141959684291045E-3</v>
+        <v>1.1769222047729233E-2</v>
       </c>
       <c r="AJ58" s="76">
         <f t="shared" si="15"/>
-        <v>1.547655626326546</v>
+        <v>1.5441079588825262</v>
       </c>
       <c r="AT58" s="9"/>
       <c r="AZ58" s="1"/>
@@ -10609,27 +10610,27 @@
       </c>
       <c r="AE59" s="65">
         <f t="shared" si="10"/>
-        <v>1.2382676389812743</v>
+        <v>1.2434739023419803</v>
       </c>
       <c r="AF59" s="47">
         <f t="shared" si="11"/>
-        <v>0.10443582667553608</v>
+        <v>9.9811697638455321E-2</v>
       </c>
       <c r="AG59" s="75">
         <f t="shared" si="12"/>
-        <v>1.3029273912425612</v>
+        <v>1.3055305229229142</v>
       </c>
       <c r="AH59" s="65">
         <f t="shared" si="13"/>
-        <v>1.8175746709804776</v>
+        <v>1.8092122328768894</v>
       </c>
       <c r="AI59" s="47">
         <f t="shared" si="14"/>
-        <v>3.0442557515225843E-2</v>
+        <v>3.5205410623300404E-2</v>
       </c>
       <c r="AJ59" s="76">
         <f t="shared" si="15"/>
-        <v>1.8452404817102481</v>
+        <v>1.8410592626584539</v>
       </c>
       <c r="AT59" s="9"/>
       <c r="AW59" s="9"/>
@@ -10751,27 +10752,27 @@
       </c>
       <c r="AE60" s="65">
         <f t="shared" si="10"/>
-        <v>2.1978414712663681</v>
+        <v>2.2070822372884114</v>
       </c>
       <c r="AF60" s="47">
         <f t="shared" si="11"/>
-        <v>0.11212235181585761</v>
+        <v>0.11679824067106859</v>
       </c>
       <c r="AG60" s="75">
         <f t="shared" si="12"/>
-        <v>2.0870500847456102</v>
+        <v>2.0916704677566318</v>
       </c>
       <c r="AH60" s="65">
         <f t="shared" si="13"/>
-        <v>0.92491281634353784</v>
+        <v>0.92065740593241252</v>
       </c>
       <c r="AI60" s="47">
         <f t="shared" si="14"/>
-        <v>4.3454945176735205E-2</v>
+        <v>4.8277943404559487E-2</v>
       </c>
       <c r="AJ60" s="76">
         <f t="shared" si="15"/>
-        <v>0.945008834207272</v>
+        <v>0.94288112900170928</v>
       </c>
       <c r="AT60" s="9"/>
       <c r="AW60" s="9"/>
@@ -10893,27 +10894,27 @@
       </c>
       <c r="AE61" s="65">
         <f t="shared" si="10"/>
-        <v>1.5675081225118224</v>
+        <v>1.5740986687305352</v>
       </c>
       <c r="AF61" s="47">
         <f t="shared" si="11"/>
-        <v>0.43474403537371464</v>
+        <v>0.44077637851845108</v>
       </c>
       <c r="AG61" s="75">
         <f t="shared" si="12"/>
-        <v>1.3300215779225777</v>
+        <v>1.3333168510319342</v>
       </c>
       <c r="AH61" s="65">
         <f t="shared" si="13"/>
-        <v>1.9773770008599894</v>
+        <v>1.9682793318392002</v>
       </c>
       <c r="AI61" s="47">
         <f t="shared" si="14"/>
-        <v>0.4586307336494766</v>
+        <v>0.45191975257074324</v>
       </c>
       <c r="AJ61" s="76">
         <f t="shared" si="15"/>
-        <v>1.6665081004299946</v>
+        <v>1.6619592659196001</v>
       </c>
       <c r="AT61" s="9"/>
       <c r="AW61" s="9"/>
@@ -11035,27 +11036,27 @@
       </c>
       <c r="AE62" s="65">
         <f t="shared" si="10"/>
-        <v>1.9161981123500698</v>
+        <v>1.9242547163588688</v>
       </c>
       <c r="AF62" s="47">
         <f t="shared" si="11"/>
-        <v>0.1330827739943532</v>
+        <v>0.12833870391794577</v>
       </c>
       <c r="AG62" s="75">
         <f t="shared" si="12"/>
-        <v>2.0437045925072148</v>
+        <v>2.0477328945116144</v>
       </c>
       <c r="AH62" s="65">
         <f t="shared" si="13"/>
-        <v>1.1991725780046119</v>
+        <v>1.1936553320728811</v>
       </c>
       <c r="AI62" s="47">
         <f t="shared" si="14"/>
-        <v>0.15756719494039628</v>
+        <v>0.1629176363328031</v>
       </c>
       <c r="AJ62" s="76">
         <f t="shared" si="15"/>
-        <v>1.2936477076874269</v>
+        <v>1.2908890847215617</v>
       </c>
       <c r="AT62" s="9"/>
       <c r="AW62" s="9"/>
@@ -11177,27 +11178,27 @@
       </c>
       <c r="AE63" s="65">
         <f t="shared" si="10"/>
-        <v>1.5433049039302107</v>
+        <v>1.549793688359997</v>
       </c>
       <c r="AF63" s="47">
         <f t="shared" si="11"/>
-        <v>0.13045710899840057</v>
+        <v>0.12572403223953721</v>
       </c>
       <c r="AG63" s="75">
         <f t="shared" si="12"/>
-        <v>1.6439724519651056</v>
+        <v>1.6472168441799986</v>
       </c>
       <c r="AH63" s="65">
         <f t="shared" si="13"/>
-        <v>1.6178805371898164</v>
+        <v>1.6104368672997915</v>
       </c>
       <c r="AI63" s="47">
         <f t="shared" si="14"/>
-        <v>0.11852510639831371</v>
+        <v>0.12369508966483811</v>
       </c>
       <c r="AJ63" s="76">
         <f t="shared" si="15"/>
-        <v>1.7137602685949083</v>
+        <v>1.7100384336498959</v>
       </c>
       <c r="AT63" s="9"/>
       <c r="AZ63" s="1"/>
@@ -11294,27 +11295,27 @@
       </c>
       <c r="AE64" s="65">
         <f t="shared" si="10"/>
-        <v>1.5143895955163331</v>
+        <v>1.5207568063007946</v>
       </c>
       <c r="AF64" s="47">
         <f t="shared" si="11"/>
-        <v>0.10060674596487229</v>
+        <v>9.599864879027864E-2</v>
       </c>
       <c r="AG64" s="75">
         <f t="shared" si="12"/>
-        <v>1.5905685001803118</v>
+        <v>1.5937521055725425</v>
       </c>
       <c r="AH64" s="65">
         <f t="shared" si="13"/>
-        <v>1.8723757833682251</v>
+        <v>1.863761212068864</v>
       </c>
       <c r="AI64" s="47">
         <f t="shared" si="14"/>
-        <v>8.6531070172323421E-2</v>
+        <v>9.1553172420379303E-2</v>
       </c>
       <c r="AJ64" s="76">
         <f t="shared" si="15"/>
-        <v>1.9533851235180224</v>
+        <v>1.949077837868342</v>
       </c>
       <c r="AT64" s="9"/>
       <c r="AW64" s="9"/>
@@ -11335,21 +11336,15 @@
         <v>70</v>
       </c>
       <c r="AA66" s="73">
-        <f>AVERAGE(AA2:AA64)</f>
-        <v>1.7003405984755176</v>
-      </c>
-      <c r="AB66" s="73">
-        <f t="shared" ref="AB66:AD66" si="46">AVERAGE(AB2:AB64)</f>
-        <v>1.5538420860304829</v>
-      </c>
+        <f>AVERAGE(AA2:AB64)</f>
+        <v>1.6270913422530002</v>
+      </c>
+      <c r="AB66" s="73"/>
       <c r="AC66" s="73">
-        <f t="shared" si="46"/>
-        <v>2.1473897828154294</v>
-      </c>
-      <c r="AD66" s="73">
-        <f t="shared" si="46"/>
-        <v>1.9451672105778679</v>
-      </c>
+        <f>AVERAGE(AC2:AD64)</f>
+        <v>2.0462784966966479</v>
+      </c>
+      <c r="AD66" s="73"/>
       <c r="AZ66" s="1"/>
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
@@ -19419,4 +19414,1326 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="str">
+        <f>DistanserMerge!A1</f>
+        <v>A</v>
+      </c>
+      <c r="B1" t="str">
+        <f>DistanserMerge!B1</f>
+        <v>B</v>
+      </c>
+      <c r="C1" t="str">
+        <f>DistanserMerge!F1</f>
+        <v>Distanse</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f>DistanserMerge!AG1</f>
+        <v>TurFaktor</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f>DistanserMerge!AJ1</f>
+        <v>ReturFaktor</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="str">
+        <f>DistanserMerge!A2</f>
+        <v>Sognsvann</v>
+      </c>
+      <c r="B2" t="str">
+        <f>DistanserMerge!B2</f>
+        <v>Ullevålseter</v>
+      </c>
+      <c r="C2">
+        <f>DistanserMerge!F2</f>
+        <v>5.15</v>
+      </c>
+      <c r="D2" s="1">
+        <f>DistanserMerge!AG2</f>
+        <v>1.7502628643941507</v>
+      </c>
+      <c r="E2" s="1">
+        <f>DistanserMerge!AJ2</f>
+        <v>0.8572596088871296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="str">
+        <f>DistanserMerge!A3</f>
+        <v>Sognsvann</v>
+      </c>
+      <c r="B3" t="str">
+        <f>DistanserMerge!B3</f>
+        <v>Sæteren</v>
+      </c>
+      <c r="C3">
+        <f>DistanserMerge!F3</f>
+        <v>13.35</v>
+      </c>
+      <c r="D3" s="1">
+        <f>DistanserMerge!AG3</f>
+        <v>1.2011190903267912</v>
+      </c>
+      <c r="E3" s="1">
+        <f>DistanserMerge!AJ3</f>
+        <v>1.2608280652671171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="str">
+        <f>DistanserMerge!A4</f>
+        <v>Sognsvann</v>
+      </c>
+      <c r="B4" t="str">
+        <f>DistanserMerge!B4</f>
+        <v>Skjennungstua</v>
+      </c>
+      <c r="C4">
+        <f>DistanserMerge!F4</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D4" s="1">
+        <f>DistanserMerge!AG4</f>
+        <v>2.5109590627184972</v>
+      </c>
+      <c r="E4" s="1">
+        <f>DistanserMerge!AJ4</f>
+        <v>0.79104348735905128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="str">
+        <f>DistanserMerge!A6</f>
+        <v>Ullevålseter</v>
+      </c>
+      <c r="B6" t="str">
+        <f>DistanserMerge!B6</f>
+        <v>Skjennungstua</v>
+      </c>
+      <c r="C6">
+        <f>DistanserMerge!F6</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <f>DistanserMerge!AG6</f>
+        <v>2.4379508533089091</v>
+      </c>
+      <c r="E6" s="1">
+        <f>DistanserMerge!AJ6</f>
+        <v>0.67891753308086877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="str">
+        <f>DistanserMerge!A8</f>
+        <v>Ullevålseter</v>
+      </c>
+      <c r="B8" t="str">
+        <f>DistanserMerge!B8</f>
+        <v>Fagervann</v>
+      </c>
+      <c r="C8">
+        <f>DistanserMerge!F8</f>
+        <v>3.8499999999999996</v>
+      </c>
+      <c r="D8" s="1">
+        <f>DistanserMerge!AG8</f>
+        <v>2.3946456591823688</v>
+      </c>
+      <c r="E8" s="1">
+        <f>DistanserMerge!AJ8</f>
+        <v>1.612289567822295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="str">
+        <f>DistanserMerge!A9</f>
+        <v>Ullevålseter</v>
+      </c>
+      <c r="B9" t="str">
+        <f>DistanserMerge!B9</f>
+        <v>Studenterhytta</v>
+      </c>
+      <c r="C9">
+        <f>DistanserMerge!F9</f>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="D9" s="1">
+        <f>DistanserMerge!AG9</f>
+        <v>1.4387457831489774</v>
+      </c>
+      <c r="E9" s="1">
+        <f>DistanserMerge!AJ9</f>
+        <v>1.1210566401268056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="str">
+        <f>DistanserMerge!A11</f>
+        <v>Skjennungstua</v>
+      </c>
+      <c r="B11" t="str">
+        <f>DistanserMerge!B11</f>
+        <v>Studenterhytta</v>
+      </c>
+      <c r="C11">
+        <f>DistanserMerge!F11</f>
+        <v>3.8</v>
+      </c>
+      <c r="D11" s="1">
+        <f>DistanserMerge!AG11</f>
+        <v>1.1008921809362264</v>
+      </c>
+      <c r="E11" s="1">
+        <f>DistanserMerge!AJ11</f>
+        <v>1.757659220630845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="str">
+        <f>DistanserMerge!A12</f>
+        <v>Skjennungstua</v>
+      </c>
+      <c r="B12" t="str">
+        <f>DistanserMerge!B12</f>
+        <v>Brunkollen</v>
+      </c>
+      <c r="C12">
+        <f>DistanserMerge!F12</f>
+        <v>13.7</v>
+      </c>
+      <c r="D12" s="1">
+        <f>DistanserMerge!AG12</f>
+        <v>1.4334301843390631</v>
+      </c>
+      <c r="E12" s="1">
+        <f>DistanserMerge!AJ12</f>
+        <v>1.6374927508164361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="str">
+        <f>DistanserMerge!A13</f>
+        <v>Skjennungstua</v>
+      </c>
+      <c r="B13" t="str">
+        <f>DistanserMerge!B13</f>
+        <v>Sæteren</v>
+      </c>
+      <c r="C13">
+        <f>DistanserMerge!F13</f>
+        <v>14.1</v>
+      </c>
+      <c r="D13" s="1">
+        <f>DistanserMerge!AG13</f>
+        <v>1.17584191271765</v>
+      </c>
+      <c r="E13" s="1">
+        <f>DistanserMerge!AJ13</f>
+        <v>1.8471087732970077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="str">
+        <f>DistanserMerge!A14</f>
+        <v>Skjennungstua</v>
+      </c>
+      <c r="B14" t="str">
+        <f>DistanserMerge!B14</f>
+        <v>Vensåsseter</v>
+      </c>
+      <c r="C14">
+        <f>DistanserMerge!F14</f>
+        <v>13.5</v>
+      </c>
+      <c r="D14" s="1">
+        <f>DistanserMerge!AG14</f>
+        <v>1.2306293008220623</v>
+      </c>
+      <c r="E14" s="1">
+        <f>DistanserMerge!AJ14</f>
+        <v>1.5756825891472697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="str">
+        <f>DistanserMerge!A15</f>
+        <v>Mellomkollen</v>
+      </c>
+      <c r="B15" t="str">
+        <f>DistanserMerge!B15</f>
+        <v>Fagervann</v>
+      </c>
+      <c r="C15">
+        <f>DistanserMerge!F15</f>
+        <v>5.3</v>
+      </c>
+      <c r="D15" s="1">
+        <f>DistanserMerge!AG15</f>
+        <v>1.5758931221980979</v>
+      </c>
+      <c r="E15" s="1">
+        <f>DistanserMerge!AJ15</f>
+        <v>2.4408199967144131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="str">
+        <f>DistanserMerge!A16</f>
+        <v>Mellomkollen</v>
+      </c>
+      <c r="B16" t="str">
+        <f>DistanserMerge!B16</f>
+        <v>Tømtehyttene</v>
+      </c>
+      <c r="C16">
+        <f>DistanserMerge!F16</f>
+        <v>1.8</v>
+      </c>
+      <c r="D16" s="1">
+        <f>DistanserMerge!AG16</f>
+        <v>1.3085070644454353</v>
+      </c>
+      <c r="E16" s="1">
+        <f>DistanserMerge!AJ16</f>
+        <v>2.5832473443886776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="str">
+        <f>DistanserMerge!A17</f>
+        <v>Mellomkollen</v>
+      </c>
+      <c r="B17" t="str">
+        <f>DistanserMerge!B17</f>
+        <v>Gørja</v>
+      </c>
+      <c r="C17">
+        <f>DistanserMerge!F17</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D17" s="1">
+        <f>DistanserMerge!AG17</f>
+        <v>1.2738053368753823</v>
+      </c>
+      <c r="E17" s="1">
+        <f>DistanserMerge!AJ17</f>
+        <v>2.396553723974268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="str">
+        <f>DistanserMerge!A18</f>
+        <v>Liggeren</v>
+      </c>
+      <c r="B18" t="str">
+        <f>DistanserMerge!B18</f>
+        <v>Fagervann</v>
+      </c>
+      <c r="C18">
+        <f>DistanserMerge!F18</f>
+        <v>3.8</v>
+      </c>
+      <c r="D18" s="1">
+        <f>DistanserMerge!AG18</f>
+        <v>2.2163208417770912</v>
+      </c>
+      <c r="E18" s="1">
+        <f>DistanserMerge!AJ18</f>
+        <v>1.5236860580980518</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="str">
+        <f>DistanserMerge!A19</f>
+        <v>Liggeren</v>
+      </c>
+      <c r="B19" t="str">
+        <f>DistanserMerge!B19</f>
+        <v>Bjørnholt</v>
+      </c>
+      <c r="C19">
+        <f>DistanserMerge!F19</f>
+        <v>5.4</v>
+      </c>
+      <c r="D19" s="1">
+        <f>DistanserMerge!AG19</f>
+        <v>1.2109943307235786</v>
+      </c>
+      <c r="E19" s="1">
+        <f>DistanserMerge!AJ19</f>
+        <v>1.0334290593311124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="str">
+        <f>DistanserMerge!A20</f>
+        <v>Liggeren</v>
+      </c>
+      <c r="B20" t="str">
+        <f>DistanserMerge!B20</f>
+        <v>Kikutstua</v>
+      </c>
+      <c r="C20">
+        <f>DistanserMerge!F20</f>
+        <v>6.6</v>
+      </c>
+      <c r="D20" s="1">
+        <f>DistanserMerge!AG20</f>
+        <v>1.671688186030607</v>
+      </c>
+      <c r="E20" s="1">
+        <f>DistanserMerge!AJ20</f>
+        <v>1.5715646186828667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="str">
+        <f>DistanserMerge!A21</f>
+        <v>Liggeren</v>
+      </c>
+      <c r="B21" t="str">
+        <f>DistanserMerge!B21</f>
+        <v>Gørja</v>
+      </c>
+      <c r="C21">
+        <f>DistanserMerge!F21</f>
+        <v>3.2</v>
+      </c>
+      <c r="D21" s="1">
+        <f>DistanserMerge!AG21</f>
+        <v>2.3812169967190728</v>
+      </c>
+      <c r="E21" s="1">
+        <f>DistanserMerge!AJ21</f>
+        <v>1.9711879143177145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="str">
+        <f>DistanserMerge!A22</f>
+        <v>Liggeren</v>
+      </c>
+      <c r="B22" t="str">
+        <f>DistanserMerge!B22</f>
+        <v>Tømtehyttene</v>
+      </c>
+      <c r="C22">
+        <f>DistanserMerge!F22</f>
+        <v>1.8</v>
+      </c>
+      <c r="D22" s="1">
+        <f>DistanserMerge!AG22</f>
+        <v>3.6640797982675437</v>
+      </c>
+      <c r="E22" s="1">
+        <f>DistanserMerge!AJ22</f>
+        <v>0.9458379462046782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="str">
+        <f>DistanserMerge!A23</f>
+        <v>Fagervann (Nord stikryss)</v>
+      </c>
+      <c r="B23" t="str">
+        <f>DistanserMerge!B23</f>
+        <v>Studenterhytta</v>
+      </c>
+      <c r="C23">
+        <f>DistanserMerge!F23</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D23" s="1">
+        <f>DistanserMerge!AG23</f>
+        <v>1.4602988525407858</v>
+      </c>
+      <c r="E23" s="1">
+        <f>DistanserMerge!AJ23</f>
+        <v>1.6219837260116434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="str">
+        <f>DistanserMerge!A24</f>
+        <v>Fagervann (Nord stikryss)</v>
+      </c>
+      <c r="B24" t="str">
+        <f>DistanserMerge!B24</f>
+        <v>Bjørnholt</v>
+      </c>
+      <c r="C24">
+        <f>DistanserMerge!F24</f>
+        <v>5.5</v>
+      </c>
+      <c r="D24" s="1">
+        <f>DistanserMerge!AG24</f>
+        <v>1.4969493728367602</v>
+      </c>
+      <c r="E24" s="1">
+        <f>DistanserMerge!AJ24</f>
+        <v>1.8359731448062782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="str">
+        <f>DistanserMerge!A25</f>
+        <v>Fagervann (Nord stikryss)</v>
+      </c>
+      <c r="B25" t="str">
+        <f>DistanserMerge!B25</f>
+        <v>Kobberhaughytta</v>
+      </c>
+      <c r="C25">
+        <f>DistanserMerge!F25</f>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D25" s="1">
+        <f>DistanserMerge!AG25</f>
+        <v>1.5843477498268412</v>
+      </c>
+      <c r="E25" s="1">
+        <f>DistanserMerge!AJ25</f>
+        <v>1.6041102345823661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="str">
+        <f>DistanserMerge!A26</f>
+        <v>Fagervann (Nord stikryss)</v>
+      </c>
+      <c r="B26" t="str">
+        <f>DistanserMerge!B26</f>
+        <v>Tømtehyttene</v>
+      </c>
+      <c r="C26">
+        <f>DistanserMerge!F26</f>
+        <v>4.5</v>
+      </c>
+      <c r="D26" s="1">
+        <f>DistanserMerge!AG26</f>
+        <v>2.3563953573504488</v>
+      </c>
+      <c r="E26" s="1">
+        <f>DistanserMerge!AJ26</f>
+        <v>1.9614676272792857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="str">
+        <f>DistanserMerge!A27</f>
+        <v>Studenterhytta</v>
+      </c>
+      <c r="B27" t="str">
+        <f>DistanserMerge!B27</f>
+        <v>Kobberhaughytta</v>
+      </c>
+      <c r="C27">
+        <f>DistanserMerge!F27</f>
+        <v>1.4</v>
+      </c>
+      <c r="D27" s="1">
+        <f>DistanserMerge!AG27</f>
+        <v>1.6931631022718319</v>
+      </c>
+      <c r="E27" s="1">
+        <f>DistanserMerge!AJ27</f>
+        <v>1.0608034478925643</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="str">
+        <f>DistanserMerge!A28</f>
+        <v>Studenterhytta</v>
+      </c>
+      <c r="B28" t="str">
+        <f>DistanserMerge!B28</f>
+        <v>Brunkollen</v>
+      </c>
+      <c r="C28">
+        <f>DistanserMerge!F28</f>
+        <v>13.9</v>
+      </c>
+      <c r="D28" s="1">
+        <f>DistanserMerge!AG28</f>
+        <v>1.362925872965921</v>
+      </c>
+      <c r="E28" s="1">
+        <f>DistanserMerge!AJ28</f>
+        <v>1.3885495201839113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="str">
+        <f>DistanserMerge!A29</f>
+        <v>Studenterhytta</v>
+      </c>
+      <c r="B29" t="str">
+        <f>DistanserMerge!B29</f>
+        <v>Smedmyrkoia</v>
+      </c>
+      <c r="C29">
+        <f>DistanserMerge!F29</f>
+        <v>10.4</v>
+      </c>
+      <c r="D29" s="1">
+        <f>DistanserMerge!AG29</f>
+        <v>1.2522562413356348</v>
+      </c>
+      <c r="E29" s="1">
+        <f>DistanserMerge!AJ29</f>
+        <v>1.4272945078699761</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="str">
+        <f>DistanserMerge!A30</f>
+        <v>Studenterhytta</v>
+      </c>
+      <c r="B30" t="str">
+        <f>DistanserMerge!B30</f>
+        <v>Vensåsseter</v>
+      </c>
+      <c r="C30">
+        <f>DistanserMerge!F30</f>
+        <v>11.7</v>
+      </c>
+      <c r="D30" s="1">
+        <f>DistanserMerge!AG30</f>
+        <v>1.3823331034734283</v>
+      </c>
+      <c r="E30" s="1">
+        <f>DistanserMerge!AJ30</f>
+        <v>1.5709166786713191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="str">
+        <f>DistanserMerge!A31</f>
+        <v>Bjørnholt</v>
+      </c>
+      <c r="B31" t="str">
+        <f>DistanserMerge!B31</f>
+        <v>Kikutstua</v>
+      </c>
+      <c r="C31">
+        <f>DistanserMerge!F31</f>
+        <v>5.35</v>
+      </c>
+      <c r="D31" s="1">
+        <f>DistanserMerge!AG31</f>
+        <v>1.5418145978080204</v>
+      </c>
+      <c r="E31" s="1">
+        <f>DistanserMerge!AJ31</f>
+        <v>1.5687825331972247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="str">
+        <f>DistanserMerge!A32</f>
+        <v>Bjørnholt</v>
+      </c>
+      <c r="B32" t="str">
+        <f>DistanserMerge!B32</f>
+        <v>Gørja</v>
+      </c>
+      <c r="C32">
+        <f>DistanserMerge!F32</f>
+        <v>7.2</v>
+      </c>
+      <c r="D32" s="1">
+        <f>DistanserMerge!AG32</f>
+        <v>1.1851301104068048</v>
+      </c>
+      <c r="E32" s="1">
+        <f>DistanserMerge!AJ32</f>
+        <v>1.1385909824018206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="str">
+        <f>DistanserMerge!A33</f>
+        <v>Bjørnholt</v>
+      </c>
+      <c r="B33" t="str">
+        <f>DistanserMerge!B33</f>
+        <v>Kobberhaughytta</v>
+      </c>
+      <c r="C33">
+        <f>DistanserMerge!F33</f>
+        <v>2.9</v>
+      </c>
+      <c r="D33" s="1">
+        <f>DistanserMerge!AG33</f>
+        <v>2.7158869255512554</v>
+      </c>
+      <c r="E33" s="1">
+        <f>DistanserMerge!AJ33</f>
+        <v>1.741069157914918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="str">
+        <f>DistanserMerge!A34</f>
+        <v>Kikutstua</v>
+      </c>
+      <c r="B34" t="str">
+        <f>DistanserMerge!B34</f>
+        <v>Gørja</v>
+      </c>
+      <c r="C34">
+        <f>DistanserMerge!F34</f>
+        <v>6.8</v>
+      </c>
+      <c r="D34" s="1">
+        <f>DistanserMerge!AG34</f>
+        <v>1.0808362790821178</v>
+      </c>
+      <c r="E34" s="1">
+        <f>DistanserMerge!AJ34</f>
+        <v>0.99262091233455441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="str">
+        <f>DistanserMerge!A35</f>
+        <v>Kikutstua</v>
+      </c>
+      <c r="B35" t="str">
+        <f>DistanserMerge!B35</f>
+        <v>Kobberhaughytta</v>
+      </c>
+      <c r="C35">
+        <f>DistanserMerge!F35</f>
+        <v>5.2</v>
+      </c>
+      <c r="D35" s="1">
+        <f>DistanserMerge!AG35</f>
+        <v>1.929907018534871</v>
+      </c>
+      <c r="E35" s="1">
+        <f>DistanserMerge!AJ35</f>
+        <v>1.444840671631441</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="str">
+        <f>DistanserMerge!A36</f>
+        <v>Kikutstua</v>
+      </c>
+      <c r="B36" t="str">
+        <f>DistanserMerge!B36</f>
+        <v>Smedmyrkoia</v>
+      </c>
+      <c r="C36">
+        <f>DistanserMerge!F36</f>
+        <v>13.6</v>
+      </c>
+      <c r="D36" s="1">
+        <f>DistanserMerge!AG36</f>
+        <v>1.3892298781072241</v>
+      </c>
+      <c r="E36" s="1">
+        <f>DistanserMerge!AJ36</f>
+        <v>1.4074244220449721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="str">
+        <f>DistanserMerge!A37</f>
+        <v>Kikutstua</v>
+      </c>
+      <c r="B37" t="str">
+        <f>DistanserMerge!B37</f>
+        <v>Oppkuven</v>
+      </c>
+      <c r="C37">
+        <f>DistanserMerge!F37</f>
+        <v>11.9</v>
+      </c>
+      <c r="D37" s="1">
+        <f>DistanserMerge!AG37</f>
+        <v>2.121258273793476</v>
+      </c>
+      <c r="E37" s="1">
+        <f>DistanserMerge!AJ37</f>
+        <v>1.236327326006583</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="str">
+        <f>DistanserMerge!A39</f>
+        <v>Gørja (hytta)</v>
+      </c>
+      <c r="B39" t="str">
+        <f>DistanserMerge!B39</f>
+        <v>Tømtehyttene</v>
+      </c>
+      <c r="C39">
+        <f>DistanserMerge!F39</f>
+        <v>4</v>
+      </c>
+      <c r="D39" s="1">
+        <f>DistanserMerge!AG39</f>
+        <v>2.191203731100372</v>
+      </c>
+      <c r="E39" s="1">
+        <f>DistanserMerge!AJ39</f>
+        <v>1.3983033720889129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="str">
+        <f>DistanserMerge!A40</f>
+        <v>Kobberhaughytta</v>
+      </c>
+      <c r="B40" t="str">
+        <f>DistanserMerge!B40</f>
+        <v>Smedmyrkoia</v>
+      </c>
+      <c r="C40">
+        <f>DistanserMerge!F40</f>
+        <v>11.1</v>
+      </c>
+      <c r="D40" s="1">
+        <f>DistanserMerge!AG40</f>
+        <v>1.2612387083021073</v>
+      </c>
+      <c r="E40" s="1">
+        <f>DistanserMerge!AJ40</f>
+        <v>1.5328555974387879</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="str">
+        <f>DistanserMerge!A41</f>
+        <v>Brunkollen</v>
+      </c>
+      <c r="B41" t="str">
+        <f>DistanserMerge!B41</f>
+        <v>Sæteren</v>
+      </c>
+      <c r="C41">
+        <f>DistanserMerge!F41</f>
+        <v>3.4</v>
+      </c>
+      <c r="D41" s="1">
+        <f>DistanserMerge!AG41</f>
+        <v>0.99328238236521438</v>
+      </c>
+      <c r="E41" s="1">
+        <f>DistanserMerge!AJ41</f>
+        <v>3.2442366058530192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="str">
+        <f>DistanserMerge!A42</f>
+        <v>Brunkollen</v>
+      </c>
+      <c r="B42" t="str">
+        <f>DistanserMerge!B42</f>
+        <v>Vensåsseter</v>
+      </c>
+      <c r="C42">
+        <f>DistanserMerge!F42</f>
+        <v>5.3</v>
+      </c>
+      <c r="D42" s="1">
+        <f>DistanserMerge!AG42</f>
+        <v>1.6259295920135726</v>
+      </c>
+      <c r="E42" s="1">
+        <f>DistanserMerge!AJ42</f>
+        <v>1.9656639239763547</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="str">
+        <f>DistanserMerge!A43</f>
+        <v>Brunkollen</v>
+      </c>
+      <c r="B43" t="str">
+        <f>DistanserMerge!B43</f>
+        <v>Mustadkroken</v>
+      </c>
+      <c r="C43">
+        <f>DistanserMerge!F43</f>
+        <v>15.4</v>
+      </c>
+      <c r="D43" s="1">
+        <f>DistanserMerge!AG43</f>
+        <v>1.5107757905075316</v>
+      </c>
+      <c r="E43" s="1">
+        <f>DistanserMerge!AJ43</f>
+        <v>1.5508233696359475</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="str">
+        <f>DistanserMerge!A44</f>
+        <v>Smedmyrkoia</v>
+      </c>
+      <c r="B44" t="str">
+        <f>DistanserMerge!B44</f>
+        <v>Vensåsseter</v>
+      </c>
+      <c r="C44">
+        <f>DistanserMerge!F44</f>
+        <v>9.4</v>
+      </c>
+      <c r="D44" s="1">
+        <f>DistanserMerge!AG44</f>
+        <v>1.6078369999628332</v>
+      </c>
+      <c r="E44" s="1">
+        <f>DistanserMerge!AJ44</f>
+        <v>1.6503941818883239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="str">
+        <f>DistanserMerge!A45</f>
+        <v>Smedmyrkoia</v>
+      </c>
+      <c r="B45" t="str">
+        <f>DistanserMerge!B45</f>
+        <v>Myrseter</v>
+      </c>
+      <c r="C45">
+        <f>DistanserMerge!F45</f>
+        <v>13.9</v>
+      </c>
+      <c r="D45" s="1">
+        <f>DistanserMerge!AG45</f>
+        <v>1.5413885560229956</v>
+      </c>
+      <c r="E45" s="1">
+        <f>DistanserMerge!AJ45</f>
+        <v>1.5734860485207223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="str">
+        <f>DistanserMerge!A46</f>
+        <v>Smedmyrkoia</v>
+      </c>
+      <c r="B46" t="str">
+        <f>DistanserMerge!B46</f>
+        <v>Oppkuven</v>
+      </c>
+      <c r="C46">
+        <f>DistanserMerge!F46</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D46" s="1">
+        <f>DistanserMerge!AG46</f>
+        <v>3.3286610060857158</v>
+      </c>
+      <c r="E46" s="1">
+        <f>DistanserMerge!AJ46</f>
+        <v>0.93275803713606453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="str">
+        <f>DistanserMerge!A47</f>
+        <v>Smedmyrkoia</v>
+      </c>
+      <c r="B47" t="str">
+        <f>DistanserMerge!B47</f>
+        <v>Presthytta</v>
+      </c>
+      <c r="C47">
+        <f>DistanserMerge!F47</f>
+        <v>12.8</v>
+      </c>
+      <c r="D47" s="1">
+        <f>DistanserMerge!AG47</f>
+        <v>1.8396743604909522</v>
+      </c>
+      <c r="E47" s="1">
+        <f>DistanserMerge!AJ47</f>
+        <v>1.5214289200703974</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="str">
+        <f>DistanserMerge!A49</f>
+        <v>Vensåsseter</v>
+      </c>
+      <c r="B49" t="str">
+        <f>DistanserMerge!B49</f>
+        <v>Mustadkroken</v>
+      </c>
+      <c r="C49">
+        <f>DistanserMerge!F49</f>
+        <v>14.7</v>
+      </c>
+      <c r="D49" s="1">
+        <f>DistanserMerge!AG49</f>
+        <v>1.7231044763899588</v>
+      </c>
+      <c r="E49" s="1">
+        <f>DistanserMerge!AJ49</f>
+        <v>1.6975998031702271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="str">
+        <f>DistanserMerge!A50</f>
+        <v>Vensåsseter</v>
+      </c>
+      <c r="B50" t="str">
+        <f>DistanserMerge!B50</f>
+        <v>Myrseter</v>
+      </c>
+      <c r="C50">
+        <f>DistanserMerge!F50</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D50" s="1">
+        <f>DistanserMerge!AG50</f>
+        <v>1.5653980236259017</v>
+      </c>
+      <c r="E50" s="1">
+        <f>DistanserMerge!AJ50</f>
+        <v>1.5619548374326193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="str">
+        <f>DistanserMerge!A51</f>
+        <v>Vensåsseter</v>
+      </c>
+      <c r="B51" t="str">
+        <f>DistanserMerge!B51</f>
+        <v>Presthytta</v>
+      </c>
+      <c r="C51">
+        <f>DistanserMerge!F51</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D51" s="1">
+        <f>DistanserMerge!AG51</f>
+        <v>2.0193454515471485</v>
+      </c>
+      <c r="E51" s="1">
+        <f>DistanserMerge!AJ51</f>
+        <v>1.4897595811345758</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="str">
+        <f>DistanserMerge!A52</f>
+        <v>Mustadkroken</v>
+      </c>
+      <c r="B52" t="str">
+        <f>DistanserMerge!B52</f>
+        <v>Myrseter</v>
+      </c>
+      <c r="C52">
+        <f>DistanserMerge!F52</f>
+        <v>12.8</v>
+      </c>
+      <c r="D52" s="1">
+        <f>DistanserMerge!AG52</f>
+        <v>1.7033456451063449</v>
+      </c>
+      <c r="E52" s="1">
+        <f>DistanserMerge!AJ52</f>
+        <v>1.9098375017486577</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="str">
+        <f>DistanserMerge!A53</f>
+        <v>Mustadkroken</v>
+      </c>
+      <c r="B53" t="str">
+        <f>DistanserMerge!B53</f>
+        <v>Jørgenhytta</v>
+      </c>
+      <c r="C53">
+        <f>DistanserMerge!F53</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D53" s="1">
+        <f>DistanserMerge!AG53</f>
+        <v>1.2650153060492619</v>
+      </c>
+      <c r="E53" s="1">
+        <f>DistanserMerge!AJ53</f>
+        <v>1.0671170244893728</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="str">
+        <f>DistanserMerge!A54</f>
+        <v>Myrseter</v>
+      </c>
+      <c r="B54" t="str">
+        <f>DistanserMerge!B54</f>
+        <v>Presthytta</v>
+      </c>
+      <c r="C54">
+        <f>DistanserMerge!F54</f>
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <f>DistanserMerge!AG54</f>
+        <v>1.8576246138128709</v>
+      </c>
+      <c r="E54" s="1">
+        <f>DistanserMerge!AJ54</f>
+        <v>0.84222545734048648</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="str">
+        <f>DistanserMerge!A55</f>
+        <v>Myrseter</v>
+      </c>
+      <c r="B55" t="str">
+        <f>DistanserMerge!B55</f>
+        <v>Jørgenhytta</v>
+      </c>
+      <c r="C55">
+        <f>DistanserMerge!F55</f>
+        <v>7.9</v>
+      </c>
+      <c r="D55" s="1">
+        <f>DistanserMerge!AG55</f>
+        <v>2.0931163880910382</v>
+      </c>
+      <c r="E55" s="1">
+        <f>DistanserMerge!AJ55</f>
+        <v>1.5205196113619515</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="str">
+        <f>DistanserMerge!A56</f>
+        <v>Oppkuven</v>
+      </c>
+      <c r="B56" t="str">
+        <f>DistanserMerge!B56</f>
+        <v>Presthytta</v>
+      </c>
+      <c r="C56">
+        <f>DistanserMerge!F56</f>
+        <v>11.6</v>
+      </c>
+      <c r="D56" s="1">
+        <f>DistanserMerge!AG56</f>
+        <v>1.336190791495061</v>
+      </c>
+      <c r="E56" s="1">
+        <f>DistanserMerge!AJ56</f>
+        <v>2.1245023339192413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="str">
+        <f>DistanserMerge!A57</f>
+        <v>Oppkuven</v>
+      </c>
+      <c r="B57" t="str">
+        <f>DistanserMerge!B57</f>
+        <v>Gyrihaugen</v>
+      </c>
+      <c r="C57">
+        <f>DistanserMerge!F57</f>
+        <v>11.350000000000001</v>
+      </c>
+      <c r="D57" s="1">
+        <f>DistanserMerge!AG57</f>
+        <v>1.6894536332068473</v>
+      </c>
+      <c r="E57" s="1">
+        <f>DistanserMerge!AJ57</f>
+        <v>1.7856199507658617</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="str">
+        <f>DistanserMerge!A58</f>
+        <v>Oppkuven</v>
+      </c>
+      <c r="B58" t="str">
+        <f>DistanserMerge!B58</f>
+        <v>Sinnerdammen</v>
+      </c>
+      <c r="C58">
+        <f>DistanserMerge!F58</f>
+        <v>14.4</v>
+      </c>
+      <c r="D58" s="1">
+        <f>DistanserMerge!AG58</f>
+        <v>1.1255563327306679</v>
+      </c>
+      <c r="E58" s="1">
+        <f>DistanserMerge!AJ58</f>
+        <v>1.5441079588825262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="str">
+        <f>DistanserMerge!A59</f>
+        <v>Oppkuven</v>
+      </c>
+      <c r="B59" t="str">
+        <f>DistanserMerge!B59</f>
+        <v>Katnosdammen</v>
+      </c>
+      <c r="C59">
+        <f>DistanserMerge!F59</f>
+        <v>14.1</v>
+      </c>
+      <c r="D59" s="1">
+        <f>DistanserMerge!AG59</f>
+        <v>1.3055305229229142</v>
+      </c>
+      <c r="E59" s="1">
+        <f>DistanserMerge!AJ59</f>
+        <v>1.8410592626584539</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="str">
+        <f>DistanserMerge!A60</f>
+        <v>Presthytta</v>
+      </c>
+      <c r="B60" t="str">
+        <f>DistanserMerge!B60</f>
+        <v>Gyrihaugen</v>
+      </c>
+      <c r="C60">
+        <f>DistanserMerge!F60</f>
+        <v>6.5</v>
+      </c>
+      <c r="D60" s="1">
+        <f>DistanserMerge!AG60</f>
+        <v>2.0916704677566318</v>
+      </c>
+      <c r="E60" s="1">
+        <f>DistanserMerge!AJ60</f>
+        <v>0.94288112900170928</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="str">
+        <f>DistanserMerge!A61</f>
+        <v>Gyrihaugen</v>
+      </c>
+      <c r="B61" t="str">
+        <f>DistanserMerge!B61</f>
+        <v>Sinnerdammen</v>
+      </c>
+      <c r="C61">
+        <f>DistanserMerge!F61</f>
+        <v>15</v>
+      </c>
+      <c r="D61" s="1">
+        <f>DistanserMerge!AG61</f>
+        <v>1.3333168510319342</v>
+      </c>
+      <c r="E61" s="1">
+        <f>DistanserMerge!AJ61</f>
+        <v>1.6619592659196001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="str">
+        <f>DistanserMerge!A62</f>
+        <v>Sinnerdammen</v>
+      </c>
+      <c r="B62" t="str">
+        <f>DistanserMerge!B62</f>
+        <v>Pershusfjellet</v>
+      </c>
+      <c r="C62">
+        <f>DistanserMerge!F62</f>
+        <v>3.4</v>
+      </c>
+      <c r="D62" s="1">
+        <f>DistanserMerge!AG62</f>
+        <v>2.0477328945116144</v>
+      </c>
+      <c r="E62" s="1">
+        <f>DistanserMerge!AJ62</f>
+        <v>1.2908890847215617</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="str">
+        <f>DistanserMerge!A63</f>
+        <v>Sinnerdammen</v>
+      </c>
+      <c r="B63" t="str">
+        <f>DistanserMerge!B63</f>
+        <v>Katnosdammen</v>
+      </c>
+      <c r="C63">
+        <f>DistanserMerge!F63</f>
+        <v>7.5</v>
+      </c>
+      <c r="D63" s="1">
+        <f>DistanserMerge!AG63</f>
+        <v>1.6472168441799986</v>
+      </c>
+      <c r="E63" s="1">
+        <f>DistanserMerge!AJ63</f>
+        <v>1.7100384336498959</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="str">
+        <f>DistanserMerge!A64</f>
+        <v>Pershusfjellet</v>
+      </c>
+      <c r="B64" t="str">
+        <f>DistanserMerge!B64</f>
+        <v>Katnosdammen</v>
+      </c>
+      <c r="C64">
+        <f>DistanserMerge!F64</f>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D64" s="1">
+        <f>DistanserMerge!AG64</f>
+        <v>1.5937521055725425</v>
+      </c>
+      <c r="E64" s="1">
+        <f>DistanserMerge!AJ64</f>
+        <v>1.949077837868342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/marka24merge.xlsx
+++ b/marka24merge.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Poeng" sheetId="1" r:id="rId1"/>
-    <sheet name="DistanserMerge" sheetId="6" r:id="rId2"/>
-    <sheet name="Ruteanalyse" sheetId="3" r:id="rId3"/>
-    <sheet name="Lars vs Kris" sheetId="7" r:id="rId4"/>
-    <sheet name="TilProgrammet" sheetId="8" r:id="rId5"/>
+    <sheet name="Ruteanalyse 2013" sheetId="9" r:id="rId1"/>
+    <sheet name="Poeng" sheetId="1" r:id="rId2"/>
+    <sheet name="DistanserMerge" sheetId="6" r:id="rId3"/>
+    <sheet name="Ruteanalyse" sheetId="3" r:id="rId4"/>
+    <sheet name="Lars vs Kris" sheetId="7" r:id="rId5"/>
+    <sheet name="TilProgrammet" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="95">
   <si>
     <t>Ullevålseter</t>
   </si>
@@ -297,6 +298,18 @@
   <si>
     <t>ReturNormalisert</t>
   </si>
+  <si>
+    <t>Rekord Hardhaus 2012</t>
+  </si>
+  <si>
+    <t>Rekord tur 2012</t>
+  </si>
+  <si>
+    <t>Rekord hund 2012</t>
+  </si>
+  <si>
+    <t>Distanse (km)</t>
+  </si>
 </sst>
 </file>
 
@@ -458,7 +471,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -624,6 +637,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -706,7 +725,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="171">
     <cellStyle name="Dårlig" xfId="146" builtinId="27"/>
     <cellStyle name="Fulgt hyperkobling" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Fulgt hyperkobling" xfId="4" builtinId="9" hidden="1"/>
@@ -788,6 +807,9 @@
     <cellStyle name="Fulgt hyperkobling" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Fulgt hyperkobling" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Fulgt hyperkobling" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Fulgt hyperkobling" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Fulgt hyperkobling" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Fulgt hyperkobling" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="God" xfId="23" builtinId="26"/>
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperkobling" xfId="3" builtinId="8" hidden="1"/>
@@ -869,6 +891,9 @@
     <cellStyle name="Hyperkobling" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperkobling" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperkobling" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperkobling" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Komma" xfId="41" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Prosent" xfId="36" builtinId="5"/>
@@ -903,6 +928,1252 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'Ruteanalyse 2013'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poeng</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ruteanalyse 2013'!$G$2:$G$160</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="159"/>
+                <c:pt idx="0">
+                  <c:v>35.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>66.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>70.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>74.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>77.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>76.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>79.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>78.7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>81.1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85.2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>87.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>86.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>88.9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>90.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>93.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>95.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>95.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>95.1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>99.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>99.2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>100.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>99.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>102.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>102.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>105.2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>108.6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>107.9</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>106.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>110.3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>108.2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>111.7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>112.6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>115.2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>114.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>114.3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>116.9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>116.6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>115.9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>115.1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>116.7</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>118.3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>116.2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>119.2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>118.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>120.9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>121.6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>119.2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>121.1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>120.4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>123.3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>122.8</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>123.8</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>121.6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>125.1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>124.4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>126.8</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>127.2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>128.9</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>131.3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>130.6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>131.8</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>131.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>134.9</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>134.2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>133.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>136.6</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>139.3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>137.9</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>141.7</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>141.4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>139.6</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>143.1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>146.6</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>145.9</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>145.7</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>148.3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>146.4</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>147.3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>146.5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>148.1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>149.7</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>147.6</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>150.6</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>149.9</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>152.3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>150.6</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>154.7</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>155.2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>156.9</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>157.6</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>155.2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>159.3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>157.6</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>159.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ruteanalyse 2013'!$H$2:$H$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="159"/>
+                <c:pt idx="0">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>289.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>298.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>334.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>398.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>421.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>424.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>430.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>447.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>460.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>473.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>475.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>478.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>479.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>509.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>519.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>537.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>538.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>568.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>569.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>624.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>626.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>667.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>669.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>690.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>718.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>720.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>741.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>818.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>820.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>841.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>919.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>921.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>942.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1019.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1021.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1042.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1056.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1058.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1079.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1094.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1096.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1117.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1125.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1127.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1139.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1148.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1226.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1228.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1249.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1326.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1328.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1349.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1363.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1365.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1385.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1387.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1401.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1403.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1408.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1424.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1428.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1430.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1446.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1451.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1459.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1469.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1482.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1508.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1511.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1513.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1531.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1534.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1536.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1542.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1544.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1548.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1559.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1565.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1579.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1591.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1593.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1614.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1619.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1624.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1626.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1628.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1642.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1649.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1650.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1652.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1708.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1710.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1731.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1808.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1810.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1831.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1845.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1847.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1867.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1869.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1883.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1885.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1890.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1906.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1910.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1912.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1928.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1933.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1941.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1951.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1964.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1990.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1993.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1995.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2018.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2024.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2026.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2030.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2041.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2047.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2061.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2073.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2075.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2096.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2101.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2106.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2124.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2132.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2134.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2155.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2160.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2165.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2183.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2193.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2216.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ruteanalyse 2013'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rekort2011</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ruteanalyse 2013'!$I$2:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>154.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ruteanalyse 2013'!$J$2:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2124.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ruteanalyse 2013'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tur2011</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ruteanalyse 2013'!$K$2:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>95.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ruteanalyse 2013'!$L$2:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1326.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ruteanalyse 2013'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hund2011</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ruteanalyse 2013'!$M$2:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>93.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ruteanalyse 2013'!$N$2:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1226.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ruteanalyse 2013'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merke</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400"/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ruteanalyse 2013'!$O$2:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ruteanalyse 2013'!$P$2:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>741.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2144754760"/>
+        <c:axId val="-2144751704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2144754760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144751704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2144751704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144754760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.787401575" r="0.787401575" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Ruteanalyse!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1820,11 +3091,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133552248"/>
-        <c:axId val="-2133549192"/>
+        <c:axId val="-2145942264"/>
+        <c:axId val="-2145939208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133552248"/>
+        <c:axId val="-2145942264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,12 +3105,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133549192"/>
+        <c:crossAx val="-2145939208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133549192"/>
+        <c:axId val="-2145939208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1850,13 +3121,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133552248"/>
+        <c:crossAx val="-2145942264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1872,6 +3144,43 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2228,6 +3537,4467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D150"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="17" max="17" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>532</v>
+      </c>
+      <c r="B2">
+        <v>353</v>
+      </c>
+      <c r="C2">
+        <v>123</v>
+      </c>
+      <c r="D2">
+        <v>353</v>
+      </c>
+      <c r="E2">
+        <v>123</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3">
+        <f>D2/10</f>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H48" si="0">E2</f>
+        <v>123</v>
+      </c>
+      <c r="I2">
+        <f>VLOOKUP(R1,F2:H150,2,TRUE)</f>
+        <v>154.69999999999999</v>
+      </c>
+      <c r="J2">
+        <f>VLOOKUP(R1,F2:H150,3,TRUE)</f>
+        <v>2124</v>
+      </c>
+      <c r="K2">
+        <f>VLOOKUP(R2,F2:H150,2,TRUE)</f>
+        <v>95.8</v>
+      </c>
+      <c r="L2">
+        <f>VLOOKUP(R2,F2:H150,3,TRUE)</f>
+        <v>1326</v>
+      </c>
+      <c r="M2">
+        <f>VLOOKUP(R3,F2:H150,2,TRUE)</f>
+        <v>93.7</v>
+      </c>
+      <c r="N2">
+        <f>VLOOKUP(R3,F2:H150,3,TRUE)</f>
+        <v>1226</v>
+      </c>
+      <c r="O2">
+        <f>VLOOKUP(R4,F2:H150,2,TRUE)</f>
+        <v>72.8</v>
+      </c>
+      <c r="P2">
+        <f>VLOOKUP(R4,F2:H150,3,TRUE)</f>
+        <v>741</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>552</v>
+      </c>
+      <c r="B3">
+        <v>377</v>
+      </c>
+      <c r="C3">
+        <v>144</v>
+      </c>
+      <c r="D3">
+        <v>377</v>
+      </c>
+      <c r="E3">
+        <v>144</v>
+      </c>
+      <c r="F3" s="4">
+        <f>E2</f>
+        <v>123</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G66" si="1">D3/10</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="I3">
+        <f>VLOOKUP(R1,F2:H150,2,TRUE)</f>
+        <v>154.69999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>VLOOKUP(R2,F2:H150,2,TRUE)</f>
+        <v>95.8</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>VLOOKUP(R3,F2:H150,2,TRUE)</f>
+        <v>93.7</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>VLOOKUP(R4,F2:H150,2,TRUE)</f>
+        <v>72.8</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R3">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>565</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4">
+        <v>156</v>
+      </c>
+      <c r="D4">
+        <v>400</v>
+      </c>
+      <c r="E4">
+        <v>156</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F67" si="2">E3</f>
+        <v>144</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>575</v>
+      </c>
+      <c r="B5">
+        <v>393</v>
+      </c>
+      <c r="C5">
+        <v>158</v>
+      </c>
+      <c r="D5">
+        <v>393</v>
+      </c>
+      <c r="E5">
+        <v>158</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>595</v>
+      </c>
+      <c r="B6">
+        <v>417</v>
+      </c>
+      <c r="C6">
+        <v>179</v>
+      </c>
+      <c r="D6">
+        <v>417</v>
+      </c>
+      <c r="E6">
+        <v>179</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>41.7</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>599</v>
+      </c>
+      <c r="B7">
+        <v>404</v>
+      </c>
+      <c r="C7">
+        <v>182</v>
+      </c>
+      <c r="D7">
+        <v>404</v>
+      </c>
+      <c r="E7">
+        <v>182</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>40.4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>619</v>
+      </c>
+      <c r="B8">
+        <v>428</v>
+      </c>
+      <c r="C8">
+        <v>203</v>
+      </c>
+      <c r="D8">
+        <v>428</v>
+      </c>
+      <c r="E8">
+        <v>203</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>42.8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>621</v>
+      </c>
+      <c r="B9">
+        <v>431</v>
+      </c>
+      <c r="C9">
+        <v>215</v>
+      </c>
+      <c r="D9">
+        <v>431</v>
+      </c>
+      <c r="E9">
+        <v>215</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>43.1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>631</v>
+      </c>
+      <c r="B10">
+        <v>424</v>
+      </c>
+      <c r="C10">
+        <v>217</v>
+      </c>
+      <c r="D10">
+        <v>424</v>
+      </c>
+      <c r="E10">
+        <v>217</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>42.4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>651</v>
+      </c>
+      <c r="B11">
+        <v>448</v>
+      </c>
+      <c r="C11">
+        <v>238</v>
+      </c>
+      <c r="D11">
+        <v>448</v>
+      </c>
+      <c r="E11">
+        <v>238</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>217</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>44.8</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>731</v>
+      </c>
+      <c r="B12">
+        <v>492</v>
+      </c>
+      <c r="C12">
+        <v>289</v>
+      </c>
+      <c r="D12">
+        <v>492</v>
+      </c>
+      <c r="E12">
+        <v>289</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>49.2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>748</v>
+      </c>
+      <c r="B13">
+        <v>512</v>
+      </c>
+      <c r="C13">
+        <v>298</v>
+      </c>
+      <c r="D13">
+        <v>512</v>
+      </c>
+      <c r="E13">
+        <v>298</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>289</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>51.2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>755</v>
+      </c>
+      <c r="B14">
+        <v>493</v>
+      </c>
+      <c r="C14">
+        <v>334</v>
+      </c>
+      <c r="D14">
+        <v>493</v>
+      </c>
+      <c r="E14">
+        <v>334</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>49.3</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>787</v>
+      </c>
+      <c r="B15">
+        <v>530</v>
+      </c>
+      <c r="C15">
+        <v>365</v>
+      </c>
+      <c r="D15">
+        <v>530</v>
+      </c>
+      <c r="E15">
+        <v>365</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>334</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>792</v>
+      </c>
+      <c r="B16">
+        <v>533</v>
+      </c>
+      <c r="C16">
+        <v>398</v>
+      </c>
+      <c r="D16">
+        <v>533</v>
+      </c>
+      <c r="E16">
+        <v>398</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>53.3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>802</v>
+      </c>
+      <c r="B17">
+        <v>526</v>
+      </c>
+      <c r="C17">
+        <v>400</v>
+      </c>
+      <c r="D17">
+        <v>526</v>
+      </c>
+      <c r="E17">
+        <v>400</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="2"/>
+        <v>398</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>52.6</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>822</v>
+      </c>
+      <c r="B18">
+        <v>550</v>
+      </c>
+      <c r="C18">
+        <v>421</v>
+      </c>
+      <c r="D18">
+        <v>550</v>
+      </c>
+      <c r="E18">
+        <v>421</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>843</v>
+      </c>
+      <c r="B19">
+        <v>561</v>
+      </c>
+      <c r="C19">
+        <v>424</v>
+      </c>
+      <c r="D19">
+        <v>561</v>
+      </c>
+      <c r="E19">
+        <v>424</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>421</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>56.1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>880</v>
+      </c>
+      <c r="B20">
+        <v>580</v>
+      </c>
+      <c r="C20">
+        <v>430</v>
+      </c>
+      <c r="D20">
+        <v>580</v>
+      </c>
+      <c r="E20">
+        <v>430</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="2"/>
+        <v>424</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>891</v>
+      </c>
+      <c r="B21">
+        <v>581</v>
+      </c>
+      <c r="C21">
+        <v>447</v>
+      </c>
+      <c r="D21">
+        <v>581</v>
+      </c>
+      <c r="E21">
+        <v>447</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="2"/>
+        <v>430</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="1"/>
+        <v>58.1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>892</v>
+      </c>
+      <c r="B22">
+        <v>599</v>
+      </c>
+      <c r="C22">
+        <v>460</v>
+      </c>
+      <c r="D22">
+        <v>599</v>
+      </c>
+      <c r="E22">
+        <v>460</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="2"/>
+        <v>447</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>59.9</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>902</v>
+      </c>
+      <c r="B23">
+        <v>610</v>
+      </c>
+      <c r="C23">
+        <v>473</v>
+      </c>
+      <c r="D23">
+        <v>610</v>
+      </c>
+      <c r="E23">
+        <v>473</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="2"/>
+        <v>460</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>912</v>
+      </c>
+      <c r="B24">
+        <v>603</v>
+      </c>
+      <c r="C24">
+        <v>475</v>
+      </c>
+      <c r="D24">
+        <v>603</v>
+      </c>
+      <c r="E24">
+        <v>475</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="2"/>
+        <v>473</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="1"/>
+        <v>60.3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>917</v>
+      </c>
+      <c r="B25">
+        <v>614</v>
+      </c>
+      <c r="C25">
+        <v>478</v>
+      </c>
+      <c r="D25">
+        <v>614</v>
+      </c>
+      <c r="E25">
+        <v>478</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="2"/>
+        <v>475</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="1"/>
+        <v>61.4</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>920</v>
+      </c>
+      <c r="B26">
+        <v>606</v>
+      </c>
+      <c r="C26">
+        <v>479</v>
+      </c>
+      <c r="D26">
+        <v>606</v>
+      </c>
+      <c r="E26">
+        <v>479</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="2"/>
+        <v>478</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="1"/>
+        <v>60.6</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>932</v>
+      </c>
+      <c r="B27">
+        <v>625</v>
+      </c>
+      <c r="C27">
+        <v>509</v>
+      </c>
+      <c r="D27">
+        <v>625</v>
+      </c>
+      <c r="E27">
+        <v>509</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="2"/>
+        <v>479</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>948</v>
+      </c>
+      <c r="B28">
+        <v>630</v>
+      </c>
+      <c r="C28">
+        <v>519</v>
+      </c>
+      <c r="D28">
+        <v>630</v>
+      </c>
+      <c r="E28">
+        <v>519</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="2"/>
+        <v>509</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>973</v>
+      </c>
+      <c r="B29">
+        <v>645</v>
+      </c>
+      <c r="C29">
+        <v>537</v>
+      </c>
+      <c r="D29">
+        <v>645</v>
+      </c>
+      <c r="E29">
+        <v>537</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="2"/>
+        <v>519</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="1"/>
+        <v>64.5</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>976</v>
+      </c>
+      <c r="B30">
+        <v>637</v>
+      </c>
+      <c r="C30">
+        <v>538</v>
+      </c>
+      <c r="D30">
+        <v>637</v>
+      </c>
+      <c r="E30">
+        <v>538</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="2"/>
+        <v>537</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="1"/>
+        <v>63.7</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>988</v>
+      </c>
+      <c r="B31">
+        <v>656</v>
+      </c>
+      <c r="C31">
+        <v>568</v>
+      </c>
+      <c r="D31">
+        <v>656</v>
+      </c>
+      <c r="E31">
+        <v>568</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="2"/>
+        <v>538</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="1"/>
+        <v>65.599999999999994</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>1008</v>
+      </c>
+      <c r="B32">
+        <v>667</v>
+      </c>
+      <c r="C32">
+        <v>569</v>
+      </c>
+      <c r="D32">
+        <v>667</v>
+      </c>
+      <c r="E32">
+        <v>569</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="2"/>
+        <v>568</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="1"/>
+        <v>66.7</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>1018</v>
+      </c>
+      <c r="B33">
+        <v>642</v>
+      </c>
+      <c r="C33">
+        <v>624</v>
+      </c>
+      <c r="D33">
+        <v>642</v>
+      </c>
+      <c r="E33">
+        <v>624</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="2"/>
+        <v>569</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="1"/>
+        <v>64.2</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>1028</v>
+      </c>
+      <c r="B34">
+        <v>635</v>
+      </c>
+      <c r="C34">
+        <v>626</v>
+      </c>
+      <c r="D34">
+        <v>635</v>
+      </c>
+      <c r="E34">
+        <v>626</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="2"/>
+        <v>624</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="1"/>
+        <v>63.5</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>1042</v>
+      </c>
+      <c r="B35">
+        <v>695</v>
+      </c>
+      <c r="C35">
+        <v>667</v>
+      </c>
+      <c r="D35">
+        <v>695</v>
+      </c>
+      <c r="E35">
+        <v>667</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="2"/>
+        <v>626</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="1"/>
+        <v>69.5</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>1052</v>
+      </c>
+      <c r="B36">
+        <v>688</v>
+      </c>
+      <c r="C36">
+        <v>669</v>
+      </c>
+      <c r="D36">
+        <v>688</v>
+      </c>
+      <c r="E36">
+        <v>669</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="2"/>
+        <v>667</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="1"/>
+        <v>68.8</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>1072</v>
+      </c>
+      <c r="B37">
+        <v>712</v>
+      </c>
+      <c r="C37">
+        <v>690</v>
+      </c>
+      <c r="D37">
+        <v>712</v>
+      </c>
+      <c r="E37">
+        <v>690</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="2"/>
+        <v>669</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="1"/>
+        <v>71.2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>1104</v>
+      </c>
+      <c r="B38">
+        <v>711</v>
+      </c>
+      <c r="C38">
+        <v>718</v>
+      </c>
+      <c r="D38">
+        <v>711</v>
+      </c>
+      <c r="E38">
+        <v>718</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="2"/>
+        <v>690</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="1"/>
+        <v>71.099999999999994</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>718</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>1114</v>
+      </c>
+      <c r="B39">
+        <v>704</v>
+      </c>
+      <c r="C39">
+        <v>720</v>
+      </c>
+      <c r="D39">
+        <v>704</v>
+      </c>
+      <c r="E39">
+        <v>720</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="2"/>
+        <v>718</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="1"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>1134</v>
+      </c>
+      <c r="B40">
+        <v>728</v>
+      </c>
+      <c r="C40">
+        <v>741</v>
+      </c>
+      <c r="D40">
+        <v>728</v>
+      </c>
+      <c r="E40">
+        <v>741</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="1"/>
+        <v>72.8</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>1148</v>
+      </c>
+      <c r="B41">
+        <v>732</v>
+      </c>
+      <c r="C41">
+        <v>818</v>
+      </c>
+      <c r="D41">
+        <v>732</v>
+      </c>
+      <c r="E41">
+        <v>818</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="2"/>
+        <v>741</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="1"/>
+        <v>73.2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>1158</v>
+      </c>
+      <c r="B42">
+        <v>725</v>
+      </c>
+      <c r="C42">
+        <v>820</v>
+      </c>
+      <c r="D42">
+        <v>725</v>
+      </c>
+      <c r="E42">
+        <v>820</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="2"/>
+        <v>818</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="1"/>
+        <v>72.5</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>1178</v>
+      </c>
+      <c r="B43">
+        <v>749</v>
+      </c>
+      <c r="C43">
+        <v>841</v>
+      </c>
+      <c r="D43">
+        <v>749</v>
+      </c>
+      <c r="E43">
+        <v>841</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" si="2"/>
+        <v>820</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="1"/>
+        <v>74.900000000000006</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>1197</v>
+      </c>
+      <c r="B44">
+        <v>773</v>
+      </c>
+      <c r="C44">
+        <v>919</v>
+      </c>
+      <c r="D44">
+        <v>773</v>
+      </c>
+      <c r="E44">
+        <v>919</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="2"/>
+        <v>841</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="1"/>
+        <v>77.3</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>919</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>1207</v>
+      </c>
+      <c r="B45">
+        <v>766</v>
+      </c>
+      <c r="C45">
+        <v>921</v>
+      </c>
+      <c r="D45">
+        <v>766</v>
+      </c>
+      <c r="E45">
+        <v>921</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="2"/>
+        <v>919</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="1"/>
+        <v>76.599999999999994</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>921</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>1227</v>
+      </c>
+      <c r="B46">
+        <v>790</v>
+      </c>
+      <c r="C46">
+        <v>942</v>
+      </c>
+      <c r="D46">
+        <v>790</v>
+      </c>
+      <c r="E46">
+        <v>942</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="2"/>
+        <v>921</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>942</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>1241</v>
+      </c>
+      <c r="B47">
+        <v>794</v>
+      </c>
+      <c r="C47">
+        <v>1019</v>
+      </c>
+      <c r="D47">
+        <v>794</v>
+      </c>
+      <c r="E47">
+        <v>1019</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="2"/>
+        <v>942</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="1"/>
+        <v>79.400000000000006</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>1251</v>
+      </c>
+      <c r="B48">
+        <v>787</v>
+      </c>
+      <c r="C48">
+        <v>1021</v>
+      </c>
+      <c r="D48">
+        <v>787</v>
+      </c>
+      <c r="E48">
+        <v>1021</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="2"/>
+        <v>1019</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="1"/>
+        <v>78.7</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>1271</v>
+      </c>
+      <c r="B49">
+        <v>811</v>
+      </c>
+      <c r="C49">
+        <v>1042</v>
+      </c>
+      <c r="D49">
+        <v>811</v>
+      </c>
+      <c r="E49">
+        <v>1042</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" si="2"/>
+        <v>1021</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="1"/>
+        <v>81.099999999999994</v>
+      </c>
+      <c r="H49">
+        <f>E49</f>
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>1320</v>
+      </c>
+      <c r="B50">
+        <v>835</v>
+      </c>
+      <c r="C50">
+        <v>1056</v>
+      </c>
+      <c r="D50">
+        <v>835</v>
+      </c>
+      <c r="E50">
+        <v>1056</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="2"/>
+        <v>1042</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="1"/>
+        <v>83.5</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ref="H50:H108" si="3">E50</f>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>1330</v>
+      </c>
+      <c r="B51">
+        <v>828</v>
+      </c>
+      <c r="C51">
+        <v>1058</v>
+      </c>
+      <c r="D51">
+        <v>828</v>
+      </c>
+      <c r="E51">
+        <v>1058</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" si="2"/>
+        <v>1056</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="1"/>
+        <v>82.8</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>1350</v>
+      </c>
+      <c r="B52">
+        <v>852</v>
+      </c>
+      <c r="C52">
+        <v>1079</v>
+      </c>
+      <c r="D52">
+        <v>852</v>
+      </c>
+      <c r="E52">
+        <v>1079</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" si="2"/>
+        <v>1058</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="1"/>
+        <v>85.2</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>1351</v>
+      </c>
+      <c r="B53">
+        <v>871</v>
+      </c>
+      <c r="C53">
+        <v>1094</v>
+      </c>
+      <c r="D53">
+        <v>871</v>
+      </c>
+      <c r="E53">
+        <v>1094</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="2"/>
+        <v>1079</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="1"/>
+        <v>87.1</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>1361</v>
+      </c>
+      <c r="B54">
+        <v>864</v>
+      </c>
+      <c r="C54">
+        <v>1096</v>
+      </c>
+      <c r="D54">
+        <v>864</v>
+      </c>
+      <c r="E54">
+        <v>1096</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" si="2"/>
+        <v>1094</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="1"/>
+        <v>86.4</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>1381</v>
+      </c>
+      <c r="B55">
+        <v>888</v>
+      </c>
+      <c r="C55">
+        <v>1117</v>
+      </c>
+      <c r="D55">
+        <v>888</v>
+      </c>
+      <c r="E55">
+        <v>1117</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" si="2"/>
+        <v>1096</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="1"/>
+        <v>88.8</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>1386</v>
+      </c>
+      <c r="B56">
+        <v>896</v>
+      </c>
+      <c r="C56">
+        <v>1125</v>
+      </c>
+      <c r="D56">
+        <v>896</v>
+      </c>
+      <c r="E56">
+        <v>1125</v>
+      </c>
+      <c r="F56" s="4">
+        <f t="shared" si="2"/>
+        <v>1117</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="1"/>
+        <v>89.6</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>1396</v>
+      </c>
+      <c r="B57">
+        <v>889</v>
+      </c>
+      <c r="C57">
+        <v>1127</v>
+      </c>
+      <c r="D57">
+        <v>889</v>
+      </c>
+      <c r="E57">
+        <v>1127</v>
+      </c>
+      <c r="F57" s="4">
+        <f t="shared" si="2"/>
+        <v>1125</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="1"/>
+        <v>88.9</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>1414</v>
+      </c>
+      <c r="B58">
+        <v>901</v>
+      </c>
+      <c r="C58">
+        <v>1139</v>
+      </c>
+      <c r="D58">
+        <v>901</v>
+      </c>
+      <c r="E58">
+        <v>1139</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" si="2"/>
+        <v>1127</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="1"/>
+        <v>90.1</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>1416</v>
+      </c>
+      <c r="B59">
+        <v>913</v>
+      </c>
+      <c r="C59">
+        <v>1148</v>
+      </c>
+      <c r="D59">
+        <v>913</v>
+      </c>
+      <c r="E59">
+        <v>1148</v>
+      </c>
+      <c r="F59" s="4">
+        <f t="shared" si="2"/>
+        <v>1139</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="1"/>
+        <v>91.3</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>1435</v>
+      </c>
+      <c r="B60">
+        <v>937</v>
+      </c>
+      <c r="C60">
+        <v>1226</v>
+      </c>
+      <c r="D60">
+        <v>937</v>
+      </c>
+      <c r="E60">
+        <v>1226</v>
+      </c>
+      <c r="F60" s="4">
+        <f t="shared" si="2"/>
+        <v>1148</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="1"/>
+        <v>93.7</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>1445</v>
+      </c>
+      <c r="B61">
+        <v>930</v>
+      </c>
+      <c r="C61">
+        <v>1228</v>
+      </c>
+      <c r="D61">
+        <v>930</v>
+      </c>
+      <c r="E61">
+        <v>1228</v>
+      </c>
+      <c r="F61" s="4">
+        <f t="shared" si="2"/>
+        <v>1226</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="3"/>
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>1465</v>
+      </c>
+      <c r="B62">
+        <v>954</v>
+      </c>
+      <c r="C62">
+        <v>1249</v>
+      </c>
+      <c r="D62">
+        <v>954</v>
+      </c>
+      <c r="E62">
+        <v>1249</v>
+      </c>
+      <c r="F62" s="4">
+        <f t="shared" si="2"/>
+        <v>1228</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="1"/>
+        <v>95.4</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="3"/>
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>1479</v>
+      </c>
+      <c r="B63">
+        <v>958</v>
+      </c>
+      <c r="C63">
+        <v>1326</v>
+      </c>
+      <c r="D63">
+        <v>958</v>
+      </c>
+      <c r="E63">
+        <v>1326</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" si="2"/>
+        <v>1249</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="1"/>
+        <v>95.8</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="3"/>
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>1489</v>
+      </c>
+      <c r="B64">
+        <v>951</v>
+      </c>
+      <c r="C64">
+        <v>1328</v>
+      </c>
+      <c r="D64">
+        <v>951</v>
+      </c>
+      <c r="E64">
+        <v>1328</v>
+      </c>
+      <c r="F64" s="4">
+        <f t="shared" si="2"/>
+        <v>1326</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="1"/>
+        <v>95.1</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="3"/>
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>1509</v>
+      </c>
+      <c r="B65">
+        <v>975</v>
+      </c>
+      <c r="C65">
+        <v>1349</v>
+      </c>
+      <c r="D65">
+        <v>975</v>
+      </c>
+      <c r="E65">
+        <v>1349</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" si="2"/>
+        <v>1328</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="3"/>
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>1558</v>
+      </c>
+      <c r="B66">
+        <v>999</v>
+      </c>
+      <c r="C66">
+        <v>1363</v>
+      </c>
+      <c r="D66">
+        <v>999</v>
+      </c>
+      <c r="E66">
+        <v>1363</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" si="2"/>
+        <v>1349</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="1"/>
+        <v>99.9</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="3"/>
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>1568</v>
+      </c>
+      <c r="B67">
+        <v>992</v>
+      </c>
+      <c r="C67">
+        <v>1365</v>
+      </c>
+      <c r="D67">
+        <v>992</v>
+      </c>
+      <c r="E67">
+        <v>1365</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" si="2"/>
+        <v>1363</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" ref="G67:G118" si="4">D67/10</f>
+        <v>99.2</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="3"/>
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>1576</v>
+      </c>
+      <c r="B68">
+        <v>1004</v>
+      </c>
+      <c r="C68">
+        <v>1385</v>
+      </c>
+      <c r="D68">
+        <v>1004</v>
+      </c>
+      <c r="E68">
+        <v>1385</v>
+      </c>
+      <c r="F68" s="4">
+        <f t="shared" ref="F68:F108" si="5">E67</f>
+        <v>1365</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="4"/>
+        <v>100.4</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="3"/>
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>1586</v>
+      </c>
+      <c r="B69">
+        <v>997</v>
+      </c>
+      <c r="C69">
+        <v>1387</v>
+      </c>
+      <c r="D69">
+        <v>997</v>
+      </c>
+      <c r="E69">
+        <v>1387</v>
+      </c>
+      <c r="F69" s="4">
+        <f t="shared" si="5"/>
+        <v>1385</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="4"/>
+        <v>99.7</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="3"/>
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>1589</v>
+      </c>
+      <c r="B70">
+        <v>1035</v>
+      </c>
+      <c r="C70">
+        <v>1401</v>
+      </c>
+      <c r="D70">
+        <v>1035</v>
+      </c>
+      <c r="E70">
+        <v>1401</v>
+      </c>
+      <c r="F70" s="4">
+        <f t="shared" si="5"/>
+        <v>1387</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="4"/>
+        <v>103.5</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="3"/>
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>1599</v>
+      </c>
+      <c r="B71">
+        <v>1028</v>
+      </c>
+      <c r="C71">
+        <v>1403</v>
+      </c>
+      <c r="D71">
+        <v>1028</v>
+      </c>
+      <c r="E71">
+        <v>1403</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" si="5"/>
+        <v>1401</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="4"/>
+        <v>102.8</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="3"/>
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>1606</v>
+      </c>
+      <c r="B72">
+        <v>1021</v>
+      </c>
+      <c r="C72">
+        <v>1408</v>
+      </c>
+      <c r="D72">
+        <v>1021</v>
+      </c>
+      <c r="E72">
+        <v>1408</v>
+      </c>
+      <c r="F72" s="4">
+        <f t="shared" si="5"/>
+        <v>1403</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="4"/>
+        <v>102.1</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="3"/>
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>1619</v>
+      </c>
+      <c r="B73">
+        <v>1052</v>
+      </c>
+      <c r="C73">
+        <v>1424</v>
+      </c>
+      <c r="D73">
+        <v>1052</v>
+      </c>
+      <c r="E73">
+        <v>1424</v>
+      </c>
+      <c r="F73" s="4">
+        <f t="shared" si="5"/>
+        <v>1408</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="4"/>
+        <v>105.2</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="3"/>
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>1628</v>
+      </c>
+      <c r="B74">
+        <v>1086</v>
+      </c>
+      <c r="C74">
+        <v>1428</v>
+      </c>
+      <c r="D74">
+        <v>1086</v>
+      </c>
+      <c r="E74">
+        <v>1428</v>
+      </c>
+      <c r="F74" s="4">
+        <f t="shared" si="5"/>
+        <v>1424</v>
+      </c>
+      <c r="G74" s="3">
+        <f t="shared" si="4"/>
+        <v>108.6</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="3"/>
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>1638</v>
+      </c>
+      <c r="B75">
+        <v>1079</v>
+      </c>
+      <c r="C75">
+        <v>1430</v>
+      </c>
+      <c r="D75">
+        <v>1079</v>
+      </c>
+      <c r="E75">
+        <v>1430</v>
+      </c>
+      <c r="F75" s="4">
+        <f t="shared" si="5"/>
+        <v>1428</v>
+      </c>
+      <c r="G75" s="3">
+        <f t="shared" si="4"/>
+        <v>107.9</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="3"/>
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>1652</v>
+      </c>
+      <c r="B76">
+        <v>1065</v>
+      </c>
+      <c r="C76">
+        <v>1446</v>
+      </c>
+      <c r="D76">
+        <v>1065</v>
+      </c>
+      <c r="E76">
+        <v>1446</v>
+      </c>
+      <c r="F76" s="4">
+        <f t="shared" si="5"/>
+        <v>1430</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="4"/>
+        <v>106.5</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="3"/>
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>1658</v>
+      </c>
+      <c r="B77">
+        <v>1103</v>
+      </c>
+      <c r="C77">
+        <v>1451</v>
+      </c>
+      <c r="D77">
+        <v>1103</v>
+      </c>
+      <c r="E77">
+        <v>1451</v>
+      </c>
+      <c r="F77" s="4">
+        <f t="shared" si="5"/>
+        <v>1446</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" si="4"/>
+        <v>110.3</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="3"/>
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>1674</v>
+      </c>
+      <c r="B78">
+        <v>1100</v>
+      </c>
+      <c r="C78">
+        <v>1459</v>
+      </c>
+      <c r="D78">
+        <v>1100</v>
+      </c>
+      <c r="E78">
+        <v>1459</v>
+      </c>
+      <c r="F78" s="4">
+        <f t="shared" si="5"/>
+        <v>1451</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="3"/>
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>1682</v>
+      </c>
+      <c r="B79">
+        <v>1082</v>
+      </c>
+      <c r="C79">
+        <v>1469</v>
+      </c>
+      <c r="D79">
+        <v>1082</v>
+      </c>
+      <c r="E79">
+        <v>1469</v>
+      </c>
+      <c r="F79" s="4">
+        <f t="shared" si="5"/>
+        <v>1459</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="4"/>
+        <v>108.2</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="3"/>
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>1704</v>
+      </c>
+      <c r="B80">
+        <v>1117</v>
+      </c>
+      <c r="C80">
+        <v>1482</v>
+      </c>
+      <c r="D80">
+        <v>1117</v>
+      </c>
+      <c r="E80">
+        <v>1482</v>
+      </c>
+      <c r="F80" s="4">
+        <f t="shared" si="5"/>
+        <v>1469</v>
+      </c>
+      <c r="G80" s="3">
+        <f t="shared" si="4"/>
+        <v>111.7</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="3"/>
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>1714</v>
+      </c>
+      <c r="B81">
+        <v>1126</v>
+      </c>
+      <c r="C81">
+        <v>1508</v>
+      </c>
+      <c r="D81">
+        <v>1126</v>
+      </c>
+      <c r="E81">
+        <v>1508</v>
+      </c>
+      <c r="F81" s="4">
+        <f t="shared" si="5"/>
+        <v>1482</v>
+      </c>
+      <c r="G81" s="3">
+        <f t="shared" si="4"/>
+        <v>112.6</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="3"/>
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>1722</v>
+      </c>
+      <c r="B82">
+        <v>1152</v>
+      </c>
+      <c r="C82">
+        <v>1511</v>
+      </c>
+      <c r="D82">
+        <v>1152</v>
+      </c>
+      <c r="E82">
+        <v>1511</v>
+      </c>
+      <c r="F82" s="4">
+        <f t="shared" si="5"/>
+        <v>1508</v>
+      </c>
+      <c r="G82" s="3">
+        <f t="shared" si="4"/>
+        <v>115.2</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="3"/>
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>1732</v>
+      </c>
+      <c r="B83">
+        <v>1145</v>
+      </c>
+      <c r="C83">
+        <v>1513</v>
+      </c>
+      <c r="D83">
+        <v>1145</v>
+      </c>
+      <c r="E83">
+        <v>1513</v>
+      </c>
+      <c r="F83" s="4">
+        <f t="shared" si="5"/>
+        <v>1511</v>
+      </c>
+      <c r="G83" s="3">
+        <f t="shared" si="4"/>
+        <v>114.5</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="3"/>
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>1744</v>
+      </c>
+      <c r="B84">
+        <v>1143</v>
+      </c>
+      <c r="C84">
+        <v>1531</v>
+      </c>
+      <c r="D84">
+        <v>1143</v>
+      </c>
+      <c r="E84">
+        <v>1531</v>
+      </c>
+      <c r="F84" s="4">
+        <f t="shared" si="5"/>
+        <v>1513</v>
+      </c>
+      <c r="G84" s="3">
+        <f t="shared" si="4"/>
+        <v>114.3</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="3"/>
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>1752</v>
+      </c>
+      <c r="B85">
+        <v>1169</v>
+      </c>
+      <c r="C85">
+        <v>1534</v>
+      </c>
+      <c r="D85">
+        <v>1169</v>
+      </c>
+      <c r="E85">
+        <v>1534</v>
+      </c>
+      <c r="F85" s="4">
+        <f t="shared" si="5"/>
+        <v>1531</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" si="4"/>
+        <v>116.9</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="3"/>
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>1759</v>
+      </c>
+      <c r="B86">
+        <v>1150</v>
+      </c>
+      <c r="C86">
+        <v>1536</v>
+      </c>
+      <c r="D86">
+        <v>1150</v>
+      </c>
+      <c r="E86">
+        <v>1536</v>
+      </c>
+      <c r="F86" s="4">
+        <f t="shared" si="5"/>
+        <v>1534</v>
+      </c>
+      <c r="G86" s="3">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="3"/>
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>1768</v>
+      </c>
+      <c r="B87">
+        <v>1166</v>
+      </c>
+      <c r="C87">
+        <v>1542</v>
+      </c>
+      <c r="D87">
+        <v>1166</v>
+      </c>
+      <c r="E87">
+        <v>1542</v>
+      </c>
+      <c r="F87" s="4">
+        <f t="shared" si="5"/>
+        <v>1536</v>
+      </c>
+      <c r="G87" s="3">
+        <f t="shared" si="4"/>
+        <v>116.6</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="3"/>
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>1778</v>
+      </c>
+      <c r="B88">
+        <v>1159</v>
+      </c>
+      <c r="C88">
+        <v>1544</v>
+      </c>
+      <c r="D88">
+        <v>1159</v>
+      </c>
+      <c r="E88">
+        <v>1544</v>
+      </c>
+      <c r="F88" s="4">
+        <f t="shared" si="5"/>
+        <v>1542</v>
+      </c>
+      <c r="G88" s="3">
+        <f t="shared" si="4"/>
+        <v>115.9</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="3"/>
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>1787</v>
+      </c>
+      <c r="B89">
+        <v>1151</v>
+      </c>
+      <c r="C89">
+        <v>1548</v>
+      </c>
+      <c r="D89">
+        <v>1151</v>
+      </c>
+      <c r="E89">
+        <v>1548</v>
+      </c>
+      <c r="F89" s="4">
+        <f t="shared" si="5"/>
+        <v>1544</v>
+      </c>
+      <c r="G89" s="3">
+        <f t="shared" si="4"/>
+        <v>115.1</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="3"/>
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>1789</v>
+      </c>
+      <c r="B90">
+        <v>1167</v>
+      </c>
+      <c r="C90">
+        <v>1559</v>
+      </c>
+      <c r="D90">
+        <v>1167</v>
+      </c>
+      <c r="E90">
+        <v>1559</v>
+      </c>
+      <c r="F90" s="4">
+        <f t="shared" si="5"/>
+        <v>1548</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" si="4"/>
+        <v>116.7</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="3"/>
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>1798</v>
+      </c>
+      <c r="B91">
+        <v>1183</v>
+      </c>
+      <c r="C91">
+        <v>1565</v>
+      </c>
+      <c r="D91">
+        <v>1183</v>
+      </c>
+      <c r="E91">
+        <v>1565</v>
+      </c>
+      <c r="F91" s="4">
+        <f t="shared" si="5"/>
+        <v>1559</v>
+      </c>
+      <c r="G91" s="3">
+        <f t="shared" si="4"/>
+        <v>118.3</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="3"/>
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>1802</v>
+      </c>
+      <c r="B92">
+        <v>1162</v>
+      </c>
+      <c r="C92">
+        <v>1579</v>
+      </c>
+      <c r="D92">
+        <v>1162</v>
+      </c>
+      <c r="E92">
+        <v>1579</v>
+      </c>
+      <c r="F92" s="4">
+        <f t="shared" si="5"/>
+        <v>1565</v>
+      </c>
+      <c r="G92" s="3">
+        <f t="shared" si="4"/>
+        <v>116.2</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="3"/>
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>1808</v>
+      </c>
+      <c r="B93">
+        <v>1192</v>
+      </c>
+      <c r="C93">
+        <v>1591</v>
+      </c>
+      <c r="D93">
+        <v>1192</v>
+      </c>
+      <c r="E93">
+        <v>1591</v>
+      </c>
+      <c r="F93" s="4">
+        <f t="shared" si="5"/>
+        <v>1579</v>
+      </c>
+      <c r="G93" s="3">
+        <f t="shared" si="4"/>
+        <v>119.2</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="3"/>
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>1818</v>
+      </c>
+      <c r="B94">
+        <v>1185</v>
+      </c>
+      <c r="C94">
+        <v>1593</v>
+      </c>
+      <c r="D94">
+        <v>1185</v>
+      </c>
+      <c r="E94">
+        <v>1593</v>
+      </c>
+      <c r="F94" s="4">
+        <f t="shared" si="5"/>
+        <v>1591</v>
+      </c>
+      <c r="G94" s="3">
+        <f t="shared" si="4"/>
+        <v>118.5</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="3"/>
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>1838</v>
+      </c>
+      <c r="B95">
+        <v>1209</v>
+      </c>
+      <c r="C95">
+        <v>1614</v>
+      </c>
+      <c r="D95">
+        <v>1209</v>
+      </c>
+      <c r="E95">
+        <v>1614</v>
+      </c>
+      <c r="F95" s="4">
+        <f t="shared" si="5"/>
+        <v>1593</v>
+      </c>
+      <c r="G95" s="3">
+        <f t="shared" si="4"/>
+        <v>120.9</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="3"/>
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>1853</v>
+      </c>
+      <c r="B96">
+        <v>1216</v>
+      </c>
+      <c r="C96">
+        <v>1619</v>
+      </c>
+      <c r="D96">
+        <v>1216</v>
+      </c>
+      <c r="E96">
+        <v>1619</v>
+      </c>
+      <c r="F96" s="4">
+        <f t="shared" si="5"/>
+        <v>1614</v>
+      </c>
+      <c r="G96" s="3">
+        <f t="shared" si="4"/>
+        <v>121.6</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="3"/>
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>1861</v>
+      </c>
+      <c r="B97">
+        <v>1192</v>
+      </c>
+      <c r="C97">
+        <v>1624</v>
+      </c>
+      <c r="D97">
+        <v>1192</v>
+      </c>
+      <c r="E97">
+        <v>1624</v>
+      </c>
+      <c r="F97" s="4">
+        <f t="shared" si="5"/>
+        <v>1619</v>
+      </c>
+      <c r="G97" s="3">
+        <f t="shared" si="4"/>
+        <v>119.2</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="3"/>
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>1862</v>
+      </c>
+      <c r="B98">
+        <v>1211</v>
+      </c>
+      <c r="C98">
+        <v>1626</v>
+      </c>
+      <c r="D98">
+        <v>1211</v>
+      </c>
+      <c r="E98">
+        <v>1626</v>
+      </c>
+      <c r="F98" s="4">
+        <f t="shared" si="5"/>
+        <v>1624</v>
+      </c>
+      <c r="G98" s="3">
+        <f t="shared" si="4"/>
+        <v>121.1</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="3"/>
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>1872</v>
+      </c>
+      <c r="B99">
+        <v>1204</v>
+      </c>
+      <c r="C99">
+        <v>1628</v>
+      </c>
+      <c r="D99">
+        <v>1204</v>
+      </c>
+      <c r="E99">
+        <v>1628</v>
+      </c>
+      <c r="F99" s="4">
+        <f t="shared" si="5"/>
+        <v>1626</v>
+      </c>
+      <c r="G99" s="3">
+        <f t="shared" si="4"/>
+        <v>120.4</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="3"/>
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>1883</v>
+      </c>
+      <c r="B100">
+        <v>1233</v>
+      </c>
+      <c r="C100">
+        <v>1642</v>
+      </c>
+      <c r="D100">
+        <v>1233</v>
+      </c>
+      <c r="E100">
+        <v>1642</v>
+      </c>
+      <c r="F100" s="4">
+        <f t="shared" si="5"/>
+        <v>1628</v>
+      </c>
+      <c r="G100" s="3">
+        <f t="shared" si="4"/>
+        <v>123.3</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="3"/>
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>1892</v>
+      </c>
+      <c r="B101">
+        <v>1228</v>
+      </c>
+      <c r="C101">
+        <v>1649</v>
+      </c>
+      <c r="D101">
+        <v>1228</v>
+      </c>
+      <c r="E101">
+        <v>1649</v>
+      </c>
+      <c r="F101" s="4">
+        <f t="shared" si="5"/>
+        <v>1642</v>
+      </c>
+      <c r="G101" s="3">
+        <f t="shared" si="4"/>
+        <v>122.8</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="3"/>
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>1905</v>
+      </c>
+      <c r="B102">
+        <v>1238</v>
+      </c>
+      <c r="C102">
+        <v>1650</v>
+      </c>
+      <c r="D102">
+        <v>1238</v>
+      </c>
+      <c r="E102">
+        <v>1650</v>
+      </c>
+      <c r="F102" s="4">
+        <f t="shared" si="5"/>
+        <v>1649</v>
+      </c>
+      <c r="G102" s="3">
+        <f t="shared" si="4"/>
+        <v>123.8</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="3"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>1906</v>
+      </c>
+      <c r="B103">
+        <v>1216</v>
+      </c>
+      <c r="C103">
+        <v>1652</v>
+      </c>
+      <c r="D103">
+        <v>1216</v>
+      </c>
+      <c r="E103">
+        <v>1652</v>
+      </c>
+      <c r="F103" s="4">
+        <f t="shared" si="5"/>
+        <v>1650</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" si="4"/>
+        <v>121.6</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="3"/>
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>1926</v>
+      </c>
+      <c r="B104">
+        <v>1251</v>
+      </c>
+      <c r="C104">
+        <v>1708</v>
+      </c>
+      <c r="D104">
+        <v>1251</v>
+      </c>
+      <c r="E104">
+        <v>1708</v>
+      </c>
+      <c r="F104" s="4">
+        <f t="shared" si="5"/>
+        <v>1652</v>
+      </c>
+      <c r="G104" s="3">
+        <f t="shared" si="4"/>
+        <v>125.1</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="3"/>
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>1936</v>
+      </c>
+      <c r="B105">
+        <v>1244</v>
+      </c>
+      <c r="C105">
+        <v>1710</v>
+      </c>
+      <c r="D105">
+        <v>1244</v>
+      </c>
+      <c r="E105">
+        <v>1710</v>
+      </c>
+      <c r="F105" s="4">
+        <f t="shared" si="5"/>
+        <v>1708</v>
+      </c>
+      <c r="G105" s="3">
+        <f t="shared" si="4"/>
+        <v>124.4</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="3"/>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>1956</v>
+      </c>
+      <c r="B106">
+        <v>1268</v>
+      </c>
+      <c r="C106">
+        <v>1731</v>
+      </c>
+      <c r="D106">
+        <v>1268</v>
+      </c>
+      <c r="E106">
+        <v>1731</v>
+      </c>
+      <c r="F106" s="4">
+        <f t="shared" si="5"/>
+        <v>1710</v>
+      </c>
+      <c r="G106" s="3">
+        <f t="shared" si="4"/>
+        <v>126.8</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="3"/>
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>1970</v>
+      </c>
+      <c r="B107">
+        <v>1272</v>
+      </c>
+      <c r="C107">
+        <v>1808</v>
+      </c>
+      <c r="D107">
+        <v>1272</v>
+      </c>
+      <c r="E107">
+        <v>1808</v>
+      </c>
+      <c r="F107" s="4">
+        <f t="shared" si="5"/>
+        <v>1731</v>
+      </c>
+      <c r="G107" s="3">
+        <f t="shared" si="4"/>
+        <v>127.2</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="3"/>
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>1980</v>
+      </c>
+      <c r="B108">
+        <v>1265</v>
+      </c>
+      <c r="C108">
+        <v>1810</v>
+      </c>
+      <c r="D108">
+        <v>1265</v>
+      </c>
+      <c r="E108">
+        <v>1810</v>
+      </c>
+      <c r="F108" s="4">
+        <f t="shared" si="5"/>
+        <v>1808</v>
+      </c>
+      <c r="G108" s="3">
+        <f t="shared" si="4"/>
+        <v>126.5</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="3"/>
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>2000</v>
+      </c>
+      <c r="B109">
+        <v>1289</v>
+      </c>
+      <c r="C109">
+        <v>1831</v>
+      </c>
+      <c r="D109">
+        <v>1289</v>
+      </c>
+      <c r="E109">
+        <v>1831</v>
+      </c>
+      <c r="F109" s="4">
+        <f t="shared" ref="F109:F151" si="6">E108</f>
+        <v>1810</v>
+      </c>
+      <c r="G109" s="3">
+        <f t="shared" ref="G109:G150" si="7">D109/10</f>
+        <v>128.9</v>
+      </c>
+      <c r="H109">
+        <f t="shared" ref="H109:H150" si="8">E109</f>
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>2049</v>
+      </c>
+      <c r="B110">
+        <v>1313</v>
+      </c>
+      <c r="C110">
+        <v>1845</v>
+      </c>
+      <c r="D110">
+        <v>1313</v>
+      </c>
+      <c r="E110">
+        <v>1845</v>
+      </c>
+      <c r="F110" s="4">
+        <f t="shared" si="6"/>
+        <v>1831</v>
+      </c>
+      <c r="G110" s="3">
+        <f t="shared" si="7"/>
+        <v>131.30000000000001</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="8"/>
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>2059</v>
+      </c>
+      <c r="B111">
+        <v>1306</v>
+      </c>
+      <c r="C111">
+        <v>1847</v>
+      </c>
+      <c r="D111">
+        <v>1306</v>
+      </c>
+      <c r="E111">
+        <v>1847</v>
+      </c>
+      <c r="F111" s="4">
+        <f t="shared" si="6"/>
+        <v>1845</v>
+      </c>
+      <c r="G111" s="3">
+        <f t="shared" si="7"/>
+        <v>130.6</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="8"/>
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>2067</v>
+      </c>
+      <c r="B112">
+        <v>1318</v>
+      </c>
+      <c r="C112">
+        <v>1867</v>
+      </c>
+      <c r="D112">
+        <v>1318</v>
+      </c>
+      <c r="E112">
+        <v>1867</v>
+      </c>
+      <c r="F112" s="4">
+        <f t="shared" si="6"/>
+        <v>1847</v>
+      </c>
+      <c r="G112" s="3">
+        <f t="shared" si="7"/>
+        <v>131.80000000000001</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="8"/>
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>2077</v>
+      </c>
+      <c r="B113">
+        <v>1311</v>
+      </c>
+      <c r="C113">
+        <v>1869</v>
+      </c>
+      <c r="D113">
+        <v>1311</v>
+      </c>
+      <c r="E113">
+        <v>1869</v>
+      </c>
+      <c r="F113" s="4">
+        <f t="shared" si="6"/>
+        <v>1867</v>
+      </c>
+      <c r="G113" s="3">
+        <f t="shared" si="7"/>
+        <v>131.1</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="8"/>
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>2080</v>
+      </c>
+      <c r="B114">
+        <v>1349</v>
+      </c>
+      <c r="C114">
+        <v>1883</v>
+      </c>
+      <c r="D114">
+        <v>1349</v>
+      </c>
+      <c r="E114">
+        <v>1883</v>
+      </c>
+      <c r="F114" s="4">
+        <f t="shared" si="6"/>
+        <v>1869</v>
+      </c>
+      <c r="G114" s="3">
+        <f t="shared" si="7"/>
+        <v>134.9</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="8"/>
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>2090</v>
+      </c>
+      <c r="B115">
+        <v>1342</v>
+      </c>
+      <c r="C115">
+        <v>1885</v>
+      </c>
+      <c r="D115">
+        <v>1342</v>
+      </c>
+      <c r="E115">
+        <v>1885</v>
+      </c>
+      <c r="F115" s="4">
+        <f t="shared" si="6"/>
+        <v>1883</v>
+      </c>
+      <c r="G115" s="3">
+        <f t="shared" si="7"/>
+        <v>134.19999999999999</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="8"/>
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>2097</v>
+      </c>
+      <c r="B116">
+        <v>1335</v>
+      </c>
+      <c r="C116">
+        <v>1890</v>
+      </c>
+      <c r="D116">
+        <v>1335</v>
+      </c>
+      <c r="E116">
+        <v>1890</v>
+      </c>
+      <c r="F116" s="4">
+        <f t="shared" si="6"/>
+        <v>1885</v>
+      </c>
+      <c r="G116" s="3">
+        <f t="shared" si="7"/>
+        <v>133.5</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="8"/>
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>2110</v>
+      </c>
+      <c r="B117">
+        <v>1366</v>
+      </c>
+      <c r="C117">
+        <v>1906</v>
+      </c>
+      <c r="D117">
+        <v>1366</v>
+      </c>
+      <c r="E117">
+        <v>1906</v>
+      </c>
+      <c r="F117" s="4">
+        <f t="shared" si="6"/>
+        <v>1890</v>
+      </c>
+      <c r="G117" s="3">
+        <f t="shared" si="7"/>
+        <v>136.6</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="8"/>
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>2119</v>
+      </c>
+      <c r="B118">
+        <v>1400</v>
+      </c>
+      <c r="C118">
+        <v>1910</v>
+      </c>
+      <c r="D118">
+        <v>1400</v>
+      </c>
+      <c r="E118">
+        <v>1910</v>
+      </c>
+      <c r="F118" s="4">
+        <f t="shared" si="6"/>
+        <v>1906</v>
+      </c>
+      <c r="G118" s="3">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="8"/>
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>2129</v>
+      </c>
+      <c r="B119">
+        <v>1393</v>
+      </c>
+      <c r="C119">
+        <v>1912</v>
+      </c>
+      <c r="D119">
+        <v>1393</v>
+      </c>
+      <c r="E119">
+        <v>1912</v>
+      </c>
+      <c r="F119" s="4">
+        <f t="shared" si="6"/>
+        <v>1910</v>
+      </c>
+      <c r="G119" s="3">
+        <f t="shared" si="7"/>
+        <v>139.30000000000001</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="8"/>
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>2143</v>
+      </c>
+      <c r="B120">
+        <v>1379</v>
+      </c>
+      <c r="C120">
+        <v>1928</v>
+      </c>
+      <c r="D120">
+        <v>1379</v>
+      </c>
+      <c r="E120">
+        <v>1928</v>
+      </c>
+      <c r="F120" s="4">
+        <f t="shared" si="6"/>
+        <v>1912</v>
+      </c>
+      <c r="G120" s="3">
+        <f t="shared" si="7"/>
+        <v>137.9</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="8"/>
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>2149</v>
+      </c>
+      <c r="B121">
+        <v>1417</v>
+      </c>
+      <c r="C121">
+        <v>1933</v>
+      </c>
+      <c r="D121">
+        <v>1417</v>
+      </c>
+      <c r="E121">
+        <v>1933</v>
+      </c>
+      <c r="F121" s="4">
+        <f t="shared" si="6"/>
+        <v>1928</v>
+      </c>
+      <c r="G121" s="3">
+        <f t="shared" si="7"/>
+        <v>141.69999999999999</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="8"/>
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>2165</v>
+      </c>
+      <c r="B122">
+        <v>1414</v>
+      </c>
+      <c r="C122">
+        <v>1941</v>
+      </c>
+      <c r="D122">
+        <v>1414</v>
+      </c>
+      <c r="E122">
+        <v>1941</v>
+      </c>
+      <c r="F122" s="4">
+        <f t="shared" si="6"/>
+        <v>1933</v>
+      </c>
+      <c r="G122" s="3">
+        <f t="shared" si="7"/>
+        <v>141.4</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="8"/>
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>2173</v>
+      </c>
+      <c r="B123">
+        <v>1396</v>
+      </c>
+      <c r="C123">
+        <v>1951</v>
+      </c>
+      <c r="D123">
+        <v>1396</v>
+      </c>
+      <c r="E123">
+        <v>1951</v>
+      </c>
+      <c r="F123" s="4">
+        <f t="shared" si="6"/>
+        <v>1941</v>
+      </c>
+      <c r="G123" s="3">
+        <f t="shared" si="7"/>
+        <v>139.6</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="8"/>
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>2195</v>
+      </c>
+      <c r="B124">
+        <v>1431</v>
+      </c>
+      <c r="C124">
+        <v>1964</v>
+      </c>
+      <c r="D124">
+        <v>1431</v>
+      </c>
+      <c r="E124">
+        <v>1964</v>
+      </c>
+      <c r="F124" s="4">
+        <f t="shared" si="6"/>
+        <v>1951</v>
+      </c>
+      <c r="G124" s="3">
+        <f t="shared" si="7"/>
+        <v>143.1</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="8"/>
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>2205</v>
+      </c>
+      <c r="B125">
+        <v>1440</v>
+      </c>
+      <c r="C125">
+        <v>1990</v>
+      </c>
+      <c r="D125">
+        <v>1440</v>
+      </c>
+      <c r="E125">
+        <v>1990</v>
+      </c>
+      <c r="F125" s="4">
+        <f t="shared" si="6"/>
+        <v>1964</v>
+      </c>
+      <c r="G125" s="3">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="8"/>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>2213</v>
+      </c>
+      <c r="B126">
+        <v>1466</v>
+      </c>
+      <c r="C126">
+        <v>1993</v>
+      </c>
+      <c r="D126">
+        <v>1466</v>
+      </c>
+      <c r="E126">
+        <v>1993</v>
+      </c>
+      <c r="F126" s="4">
+        <f t="shared" si="6"/>
+        <v>1990</v>
+      </c>
+      <c r="G126" s="3">
+        <f t="shared" si="7"/>
+        <v>146.6</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="8"/>
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>2223</v>
+      </c>
+      <c r="B127">
+        <v>1459</v>
+      </c>
+      <c r="C127">
+        <v>1995</v>
+      </c>
+      <c r="D127">
+        <v>1459</v>
+      </c>
+      <c r="E127">
+        <v>1995</v>
+      </c>
+      <c r="F127" s="4">
+        <f t="shared" si="6"/>
+        <v>1993</v>
+      </c>
+      <c r="G127" s="3">
+        <f t="shared" si="7"/>
+        <v>145.9</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="8"/>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>2235</v>
+      </c>
+      <c r="B128">
+        <v>1457</v>
+      </c>
+      <c r="C128">
+        <v>2013</v>
+      </c>
+      <c r="D128">
+        <v>1457</v>
+      </c>
+      <c r="E128">
+        <v>2013</v>
+      </c>
+      <c r="F128" s="4">
+        <f t="shared" si="6"/>
+        <v>1995</v>
+      </c>
+      <c r="G128" s="3">
+        <f t="shared" si="7"/>
+        <v>145.69999999999999</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="8"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>2243</v>
+      </c>
+      <c r="B129">
+        <v>1483</v>
+      </c>
+      <c r="C129">
+        <v>2016</v>
+      </c>
+      <c r="D129">
+        <v>1483</v>
+      </c>
+      <c r="E129">
+        <v>2016</v>
+      </c>
+      <c r="F129" s="4">
+        <f t="shared" si="6"/>
+        <v>2013</v>
+      </c>
+      <c r="G129" s="3">
+        <f t="shared" si="7"/>
+        <v>148.30000000000001</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="8"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>2250</v>
+      </c>
+      <c r="B130">
+        <v>1464</v>
+      </c>
+      <c r="C130">
+        <v>2018</v>
+      </c>
+      <c r="D130">
+        <v>1464</v>
+      </c>
+      <c r="E130">
+        <v>2018</v>
+      </c>
+      <c r="F130" s="4">
+        <f t="shared" si="6"/>
+        <v>2016</v>
+      </c>
+      <c r="G130" s="3">
+        <f t="shared" si="7"/>
+        <v>146.4</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="8"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>2259</v>
+      </c>
+      <c r="B131">
+        <v>1480</v>
+      </c>
+      <c r="C131">
+        <v>2024</v>
+      </c>
+      <c r="D131">
+        <v>1480</v>
+      </c>
+      <c r="E131">
+        <v>2024</v>
+      </c>
+      <c r="F131" s="4">
+        <f t="shared" si="6"/>
+        <v>2018</v>
+      </c>
+      <c r="G131" s="3">
+        <f t="shared" si="7"/>
+        <v>148</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="8"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>2269</v>
+      </c>
+      <c r="B132">
+        <v>1473</v>
+      </c>
+      <c r="C132">
+        <v>2026</v>
+      </c>
+      <c r="D132">
+        <v>1473</v>
+      </c>
+      <c r="E132">
+        <v>2026</v>
+      </c>
+      <c r="F132" s="4">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+      <c r="G132" s="3">
+        <f t="shared" si="7"/>
+        <v>147.30000000000001</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="8"/>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <v>2278</v>
+      </c>
+      <c r="B133">
+        <v>1465</v>
+      </c>
+      <c r="C133">
+        <v>2030</v>
+      </c>
+      <c r="D133">
+        <v>1465</v>
+      </c>
+      <c r="E133">
+        <v>2030</v>
+      </c>
+      <c r="F133" s="4">
+        <f t="shared" si="6"/>
+        <v>2026</v>
+      </c>
+      <c r="G133" s="3">
+        <f t="shared" si="7"/>
+        <v>146.5</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="8"/>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
+        <v>2280</v>
+      </c>
+      <c r="B134">
+        <v>1481</v>
+      </c>
+      <c r="C134">
+        <v>2041</v>
+      </c>
+      <c r="D134">
+        <v>1481</v>
+      </c>
+      <c r="E134">
+        <v>2041</v>
+      </c>
+      <c r="F134" s="4">
+        <f t="shared" si="6"/>
+        <v>2030</v>
+      </c>
+      <c r="G134" s="3">
+        <f t="shared" si="7"/>
+        <v>148.1</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="8"/>
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>2289</v>
+      </c>
+      <c r="B135">
+        <v>1497</v>
+      </c>
+      <c r="C135">
+        <v>2047</v>
+      </c>
+      <c r="D135">
+        <v>1497</v>
+      </c>
+      <c r="E135">
+        <v>2047</v>
+      </c>
+      <c r="F135" s="4">
+        <f t="shared" si="6"/>
+        <v>2041</v>
+      </c>
+      <c r="G135" s="3">
+        <f t="shared" si="7"/>
+        <v>149.69999999999999</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="8"/>
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>2293</v>
+      </c>
+      <c r="B136">
+        <v>1476</v>
+      </c>
+      <c r="C136">
+        <v>2061</v>
+      </c>
+      <c r="D136">
+        <v>1476</v>
+      </c>
+      <c r="E136">
+        <v>2061</v>
+      </c>
+      <c r="F136" s="4">
+        <f t="shared" si="6"/>
+        <v>2047</v>
+      </c>
+      <c r="G136" s="3">
+        <f t="shared" si="7"/>
+        <v>147.6</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="8"/>
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>2299</v>
+      </c>
+      <c r="B137">
+        <v>1506</v>
+      </c>
+      <c r="C137">
+        <v>2073</v>
+      </c>
+      <c r="D137">
+        <v>1506</v>
+      </c>
+      <c r="E137">
+        <v>2073</v>
+      </c>
+      <c r="F137" s="4">
+        <f t="shared" si="6"/>
+        <v>2061</v>
+      </c>
+      <c r="G137" s="3">
+        <f t="shared" si="7"/>
+        <v>150.6</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="8"/>
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>2309</v>
+      </c>
+      <c r="B138">
+        <v>1499</v>
+      </c>
+      <c r="C138">
+        <v>2075</v>
+      </c>
+      <c r="D138">
+        <v>1499</v>
+      </c>
+      <c r="E138">
+        <v>2075</v>
+      </c>
+      <c r="F138" s="4">
+        <f t="shared" si="6"/>
+        <v>2073</v>
+      </c>
+      <c r="G138" s="3">
+        <f t="shared" si="7"/>
+        <v>149.9</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="8"/>
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>2329</v>
+      </c>
+      <c r="B139">
+        <v>1523</v>
+      </c>
+      <c r="C139">
+        <v>2096</v>
+      </c>
+      <c r="D139">
+        <v>1523</v>
+      </c>
+      <c r="E139">
+        <v>2096</v>
+      </c>
+      <c r="F139" s="4">
+        <f t="shared" si="6"/>
+        <v>2075</v>
+      </c>
+      <c r="G139" s="3">
+        <f t="shared" si="7"/>
+        <v>152.30000000000001</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="8"/>
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140">
+        <v>2344</v>
+      </c>
+      <c r="B140">
+        <v>1530</v>
+      </c>
+      <c r="C140">
+        <v>2101</v>
+      </c>
+      <c r="D140">
+        <v>1530</v>
+      </c>
+      <c r="E140">
+        <v>2101</v>
+      </c>
+      <c r="F140" s="4">
+        <f t="shared" si="6"/>
+        <v>2096</v>
+      </c>
+      <c r="G140" s="3">
+        <f t="shared" si="7"/>
+        <v>153</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="8"/>
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141">
+        <v>2352</v>
+      </c>
+      <c r="B141">
+        <v>1506</v>
+      </c>
+      <c r="C141">
+        <v>2106</v>
+      </c>
+      <c r="D141">
+        <v>1506</v>
+      </c>
+      <c r="E141">
+        <v>2106</v>
+      </c>
+      <c r="F141" s="4">
+        <f t="shared" si="6"/>
+        <v>2101</v>
+      </c>
+      <c r="G141" s="3">
+        <f t="shared" si="7"/>
+        <v>150.6</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="8"/>
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142">
+        <v>2374</v>
+      </c>
+      <c r="B142">
+        <v>1547</v>
+      </c>
+      <c r="C142">
+        <v>2124</v>
+      </c>
+      <c r="D142">
+        <v>1547</v>
+      </c>
+      <c r="E142">
+        <v>2124</v>
+      </c>
+      <c r="F142" s="4">
+        <f t="shared" si="6"/>
+        <v>2106</v>
+      </c>
+      <c r="G142" s="3">
+        <f t="shared" si="7"/>
+        <v>154.69999999999999</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="8"/>
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143">
+        <v>2396</v>
+      </c>
+      <c r="B143">
+        <v>1552</v>
+      </c>
+      <c r="C143">
+        <v>2132</v>
+      </c>
+      <c r="D143">
+        <v>1552</v>
+      </c>
+      <c r="E143">
+        <v>2132</v>
+      </c>
+      <c r="F143" s="4">
+        <f t="shared" si="6"/>
+        <v>2124</v>
+      </c>
+      <c r="G143" s="3">
+        <f t="shared" si="7"/>
+        <v>155.19999999999999</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="8"/>
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
+        <v>2397</v>
+      </c>
+      <c r="B144">
+        <v>1530</v>
+      </c>
+      <c r="C144">
+        <v>2134</v>
+      </c>
+      <c r="D144">
+        <v>1530</v>
+      </c>
+      <c r="E144">
+        <v>2134</v>
+      </c>
+      <c r="F144" s="4">
+        <f t="shared" si="6"/>
+        <v>2132</v>
+      </c>
+      <c r="G144" s="3">
+        <f t="shared" si="7"/>
+        <v>153</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="8"/>
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
+        <v>2426</v>
+      </c>
+      <c r="B145">
+        <v>1569</v>
+      </c>
+      <c r="C145">
+        <v>2155</v>
+      </c>
+      <c r="D145">
+        <v>1569</v>
+      </c>
+      <c r="E145">
+        <v>2155</v>
+      </c>
+      <c r="F145" s="4">
+        <f t="shared" si="6"/>
+        <v>2134</v>
+      </c>
+      <c r="G145" s="3">
+        <f t="shared" si="7"/>
+        <v>156.9</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="8"/>
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>2441</v>
+      </c>
+      <c r="B146">
+        <v>1576</v>
+      </c>
+      <c r="C146">
+        <v>2160</v>
+      </c>
+      <c r="D146">
+        <v>1576</v>
+      </c>
+      <c r="E146">
+        <v>2160</v>
+      </c>
+      <c r="F146" s="4">
+        <f t="shared" si="6"/>
+        <v>2155</v>
+      </c>
+      <c r="G146" s="3">
+        <f t="shared" si="7"/>
+        <v>157.6</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="8"/>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
+        <v>2449</v>
+      </c>
+      <c r="B147">
+        <v>1552</v>
+      </c>
+      <c r="C147">
+        <v>2165</v>
+      </c>
+      <c r="D147">
+        <v>1552</v>
+      </c>
+      <c r="E147">
+        <v>2165</v>
+      </c>
+      <c r="F147" s="4">
+        <f t="shared" si="6"/>
+        <v>2160</v>
+      </c>
+      <c r="G147" s="3">
+        <f t="shared" si="7"/>
+        <v>155.19999999999999</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="8"/>
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>2471</v>
+      </c>
+      <c r="B148">
+        <v>1593</v>
+      </c>
+      <c r="C148">
+        <v>2183</v>
+      </c>
+      <c r="D148">
+        <v>1593</v>
+      </c>
+      <c r="E148">
+        <v>2183</v>
+      </c>
+      <c r="F148" s="4">
+        <f t="shared" si="6"/>
+        <v>2165</v>
+      </c>
+      <c r="G148" s="3">
+        <f t="shared" si="7"/>
+        <v>159.30000000000001</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="8"/>
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149">
+        <v>2494</v>
+      </c>
+      <c r="B149">
+        <v>1576</v>
+      </c>
+      <c r="C149">
+        <v>2193</v>
+      </c>
+      <c r="D149">
+        <v>1576</v>
+      </c>
+      <c r="E149">
+        <v>2193</v>
+      </c>
+      <c r="F149" s="4">
+        <f t="shared" si="6"/>
+        <v>2183</v>
+      </c>
+      <c r="G149" s="3">
+        <f t="shared" si="7"/>
+        <v>157.6</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="8"/>
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>2542</v>
+      </c>
+      <c r="B150">
+        <v>1596</v>
+      </c>
+      <c r="C150">
+        <v>2216</v>
+      </c>
+      <c r="D150">
+        <v>1596</v>
+      </c>
+      <c r="E150">
+        <v>2216</v>
+      </c>
+      <c r="F150" s="4">
+        <f t="shared" si="6"/>
+        <v>2193</v>
+      </c>
+      <c r="G150" s="3">
+        <f t="shared" si="7"/>
+        <v>159.6</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="8"/>
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="F151" s="4">
+        <f t="shared" si="6"/>
+        <v>2216</v>
+      </c>
+      <c r="G151" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2614,12 +8384,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+    <sheetView topLeftCell="D27" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11764,12 +17534,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14112,7 +19882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V66"/>
   <sheetViews>
@@ -19416,7 +25186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
